--- a/3D制作物管理表.xlsx
+++ b/3D制作物管理表.xlsx
@@ -245,10 +245,10 @@
     <t xml:space="preserve">C01</t>
   </si>
   <si>
+    <t xml:space="preserve">Scene_01</t>
+  </si>
+  <si>
     <t xml:space="preserve">レイアウト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene_01</t>
   </si>
   <si>
     <t xml:space="preserve">モーション</t>
@@ -723,7 +723,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -846,6 +846,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -995,11 +999,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="4" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="32" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="32" style="0" width="15.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="12.86"/>
   </cols>
   <sheetData>
@@ -2695,23 +2699,23 @@
   <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="4" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="5" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="15.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="26" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="27" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="37" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="37" style="0" width="15.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="12.86"/>
   </cols>
   <sheetData>
@@ -2749,6 +2753,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
       <c r="AH1" s="28" t="s">
         <v>38</v>
       </c>
@@ -2761,55 +2766,55 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AG2" s="0" t="s">
-        <v>41</v>
-      </c>
+      <c r="AF2" s="7"/>
       <c r="AH2" s="28" t="s">
         <v>42</v>
       </c>
@@ -2827,53 +2832,56 @@
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="10"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -2893,88 +2901,88 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
-      <c r="AG4" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -2996,32 +3004,35 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="10"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -3041,88 +3052,88 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
-      <c r="AG8" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3144,32 +3155,35 @@
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="10"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -3189,88 +3203,88 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
-      <c r="AG12" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="AF12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3292,32 +3306,35 @@
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>47</v>
+      <c r="B16" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="10"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -3337,88 +3354,88 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
-      <c r="AG16" s="0" t="s">
-        <v>55</v>
-      </c>
+      <c r="AF16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3440,32 +3457,35 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="10"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -3485,88 +3505,88 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
-      <c r="AG20" s="0" t="s">
-        <v>57</v>
-      </c>
+      <c r="AF20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="D21" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3588,32 +3608,35 @@
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="39" t="s">
+      <c r="B24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="10"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -3633,88 +3656,88 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
-      <c r="AG24" s="0" t="s">
-        <v>57</v>
-      </c>
+      <c r="AF24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="D25" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3736,32 +3759,35 @@
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
     </row>
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="10"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -3781,88 +3807,88 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
-      <c r="AG28" s="0" t="s">
-        <v>60</v>
-      </c>
+      <c r="AF28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="D29" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -3884,32 +3910,35 @@
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="39" t="s">
+      <c r="B32" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="10"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -3929,88 +3958,88 @@
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
-      <c r="AG32" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="AF32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="D33" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -4032,32 +4061,35 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
     </row>
     <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="39" t="s">
+      <c r="B36" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="10"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -4077,88 +4109,88 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
-      <c r="AG36" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="AF36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="D37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -4180,32 +4212,35 @@
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="38"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="38"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="39" t="s">
+      <c r="B40" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="10"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -4225,88 +4260,88 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
-      <c r="AG40" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="AF40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="D41" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="31"/>
+      <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -4328,32 +4363,35 @@
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
-      <c r="AD43" s="38"/>
-      <c r="AE43" s="38"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
     </row>
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="39" t="s">
+      <c r="B44" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="10"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -4373,88 +4411,88 @@
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
-      <c r="AG44" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="AF44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="D45" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="42"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -4476,32 +4514,35 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38"/>
-      <c r="AE47" s="38"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
     </row>
     <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="34" t="s">
-        <v>47</v>
+      <c r="B48" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="C48" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="10"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -4521,88 +4562,88 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
-      <c r="AG48" s="0" t="s">
-        <v>67</v>
-      </c>
+      <c r="AF48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="D49" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="31"/>
+      <c r="C51" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="42"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -4624,32 +4665,35 @@
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="38"/>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="38"/>
-      <c r="AE51" s="38"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
     </row>
     <row r="52" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="39" t="s">
+      <c r="B52" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="10"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -4669,88 +4713,88 @@
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
-      <c r="AG52" s="0" t="s">
-        <v>69</v>
-      </c>
+      <c r="AF52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="D53" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="31"/>
+      <c r="C54" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="41"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="38"/>
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -4772,32 +4816,35 @@
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
-      <c r="AC55" s="38"/>
-      <c r="AD55" s="38"/>
-      <c r="AE55" s="38"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="39" t="s">
+      <c r="B56" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="10"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -4817,88 +4864,88 @@
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
-      <c r="AG56" s="0" t="s">
-        <v>69</v>
-      </c>
+      <c r="AF56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="D57" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="31"/>
+      <c r="C58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="42"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="38"/>
+      <c r="Z58" s="38"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="12"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -4920,32 +4967,35 @@
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
-      <c r="Z59" s="38"/>
-      <c r="AA59" s="38"/>
-      <c r="AB59" s="38"/>
-      <c r="AC59" s="38"/>
-      <c r="AD59" s="38"/>
-      <c r="AE59" s="38"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
     </row>
     <row r="60" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>47</v>
+      <c r="B60" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C60" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="10"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -4965,88 +5015,88 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
       <c r="AE60" s="10"/>
-      <c r="AG60" s="0" t="s">
-        <v>72</v>
-      </c>
+      <c r="AF60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="D61" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
       <c r="AA61" s="12"/>
       <c r="AB61" s="12"/>
       <c r="AC61" s="12"/>
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="31"/>
+      <c r="C62" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
       <c r="AA62" s="12"/>
       <c r="AB62" s="12"/>
       <c r="AC62" s="12"/>
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="42"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -5068,32 +5118,35 @@
       <c r="W63" s="12"/>
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
-      <c r="AC63" s="38"/>
-      <c r="AD63" s="38"/>
-      <c r="AE63" s="38"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="39"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+      <c r="AF63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="34" t="s">
-        <v>47</v>
+      <c r="B64" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C64" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="10"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -5113,88 +5166,88 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
       <c r="AE64" s="10"/>
-      <c r="AG64" s="0" t="s">
-        <v>72</v>
-      </c>
+      <c r="AF64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="D65" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
       <c r="AA65" s="12"/>
       <c r="AB65" s="12"/>
       <c r="AC65" s="12"/>
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="31"/>
+      <c r="C66" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="12"/>
+      <c r="D66" s="42"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="12"/>
       <c r="AC66" s="12"/>
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="31"/>
+      <c r="C67" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="12"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -5216,32 +5269,35 @@
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
-      <c r="Z67" s="38"/>
-      <c r="AA67" s="38"/>
-      <c r="AB67" s="38"/>
-      <c r="AC67" s="38"/>
-      <c r="AD67" s="38"/>
-      <c r="AE67" s="38"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="39"/>
+      <c r="AB67" s="39"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="34" t="s">
-        <v>47</v>
+      <c r="B68" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C68" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="10"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -5261,88 +5317,88 @@
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
-      <c r="AG68" s="0" t="s">
-        <v>75</v>
-      </c>
+      <c r="AF68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="D69" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="12"/>
       <c r="AC69" s="12"/>
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="31"/>
+      <c r="C70" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="12"/>
+      <c r="D70" s="42"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
-      <c r="Z70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
       <c r="AA70" s="12"/>
       <c r="AB70" s="12"/>
       <c r="AC70" s="12"/>
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="31"/>
+      <c r="C71" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="12"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -5364,32 +5420,35 @@
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
-      <c r="Z71" s="38"/>
-      <c r="AA71" s="38"/>
-      <c r="AB71" s="38"/>
-      <c r="AC71" s="38"/>
-      <c r="AD71" s="38"/>
-      <c r="AE71" s="38"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="39"/>
+      <c r="AB71" s="39"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="39"/>
+      <c r="AE71" s="39"/>
+      <c r="AF71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="34" t="s">
-        <v>47</v>
+      <c r="B72" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="C72" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="10"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -5409,88 +5468,88 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
-      <c r="AG72" s="0" t="s">
-        <v>77</v>
-      </c>
+      <c r="AF72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="D73" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="38"/>
+      <c r="Z73" s="38"/>
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="12"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="38"/>
+      <c r="Z74" s="38"/>
       <c r="AA74" s="12"/>
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="12"/>
+      <c r="D75" s="42"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -5512,32 +5571,35 @@
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
-      <c r="AB75" s="38"/>
-      <c r="AC75" s="38"/>
-      <c r="AD75" s="38"/>
-      <c r="AE75" s="38"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="39"/>
+      <c r="AB75" s="39"/>
+      <c r="AC75" s="39"/>
+      <c r="AD75" s="39"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="39"/>
     </row>
     <row r="76" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="34" t="s">
-        <v>47</v>
+      <c r="B76" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="C76" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="10"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -5557,88 +5619,88 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
-      <c r="AG76" s="0" t="s">
-        <v>77</v>
-      </c>
+      <c r="AF76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="D77" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="37"/>
-      <c r="Z77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="38"/>
+      <c r="Z77" s="38"/>
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="31"/>
+      <c r="C78" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="12"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="37"/>
-      <c r="Z78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38"/>
       <c r="AA78" s="12"/>
       <c r="AB78" s="12"/>
       <c r="AC78" s="12"/>
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
+      <c r="AF78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="31"/>
+      <c r="C79" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="12"/>
+      <c r="D79" s="42"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
@@ -5660,32 +5722,35 @@
       <c r="W79" s="12"/>
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
-      <c r="Z79" s="38"/>
-      <c r="AA79" s="38"/>
-      <c r="AB79" s="38"/>
-      <c r="AC79" s="38"/>
-      <c r="AD79" s="38"/>
-      <c r="AE79" s="38"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="39"/>
+      <c r="AB79" s="39"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
     </row>
     <row r="80" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="34" t="s">
-        <v>47</v>
+      <c r="B80" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="C80" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="10"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -5705,88 +5770,88 @@
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
       <c r="AE80" s="10"/>
-      <c r="AG80" s="0" t="s">
-        <v>77</v>
-      </c>
+      <c r="AF80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="31"/>
+      <c r="C81" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="D81" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="38"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="38"/>
+      <c r="Z81" s="38"/>
       <c r="AA81" s="12"/>
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
+      <c r="AF81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="31"/>
+      <c r="C82" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="12"/>
+      <c r="D82" s="42"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="37"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="37"/>
-      <c r="X82" s="37"/>
-      <c r="Y82" s="37"/>
-      <c r="Z82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38"/>
+      <c r="Y82" s="38"/>
+      <c r="Z82" s="38"/>
       <c r="AA82" s="12"/>
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
+      <c r="AF82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="31"/>
+      <c r="C83" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="12"/>
+      <c r="D83" s="33"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -5808,32 +5873,35 @@
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
-      <c r="Z83" s="38"/>
-      <c r="AA83" s="38"/>
-      <c r="AB83" s="38"/>
-      <c r="AC83" s="38"/>
-      <c r="AD83" s="38"/>
-      <c r="AE83" s="38"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="39"/>
+      <c r="AB83" s="39"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="39"/>
+      <c r="AF83" s="39"/>
     </row>
     <row r="84" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="34" t="s">
-        <v>47</v>
+      <c r="B84" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C84" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="10"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -5853,88 +5921,88 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
       <c r="AE84" s="10"/>
-      <c r="AG84" s="0" t="s">
-        <v>81</v>
-      </c>
+      <c r="AF84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="D85" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
-      <c r="Z85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38"/>
+      <c r="Y85" s="38"/>
+      <c r="Z85" s="38"/>
       <c r="AA85" s="12"/>
       <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="31"/>
+      <c r="C86" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="12"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="37"/>
-      <c r="Z86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38"/>
+      <c r="Y86" s="38"/>
+      <c r="Z86" s="38"/>
       <c r="AA86" s="12"/>
       <c r="AB86" s="12"/>
       <c r="AC86" s="12"/>
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="31"/>
+      <c r="C87" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="41"/>
-      <c r="D87" s="12"/>
+      <c r="D87" s="42"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -5956,32 +6024,35 @@
       <c r="W87" s="12"/>
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
-      <c r="Z87" s="38"/>
-      <c r="AA87" s="38"/>
-      <c r="AB87" s="38"/>
-      <c r="AC87" s="38"/>
-      <c r="AD87" s="38"/>
-      <c r="AE87" s="38"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="39"/>
+      <c r="AB87" s="39"/>
+      <c r="AC87" s="39"/>
+      <c r="AD87" s="39"/>
+      <c r="AE87" s="39"/>
+      <c r="AF87" s="39"/>
     </row>
     <row r="88" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="34" t="s">
-        <v>47</v>
+      <c r="B88" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C88" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="10"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -6001,88 +6072,88 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
       <c r="AE88" s="10"/>
-      <c r="AG88" s="0" t="s">
-        <v>81</v>
-      </c>
+      <c r="AF88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="31"/>
+      <c r="C89" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="D89" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="37"/>
-      <c r="Z89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="38"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="38"/>
+      <c r="X89" s="38"/>
+      <c r="Y89" s="38"/>
+      <c r="Z89" s="38"/>
       <c r="AA89" s="12"/>
       <c r="AB89" s="12"/>
       <c r="AC89" s="12"/>
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
+      <c r="AF89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="31"/>
+      <c r="C90" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="42"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="37"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="37"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="37"/>
-      <c r="X90" s="37"/>
-      <c r="Y90" s="37"/>
-      <c r="Z90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38"/>
+      <c r="Y90" s="38"/>
+      <c r="Z90" s="38"/>
       <c r="AA90" s="12"/>
       <c r="AB90" s="12"/>
       <c r="AC90" s="12"/>
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
+      <c r="AF90" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="12"/>
+      <c r="D91" s="42"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -6104,32 +6175,35 @@
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="38"/>
-      <c r="AB91" s="38"/>
-      <c r="AC91" s="38"/>
-      <c r="AD91" s="38"/>
-      <c r="AE91" s="38"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="39"/>
+      <c r="AB91" s="39"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="39"/>
+      <c r="AE91" s="39"/>
+      <c r="AF91" s="39"/>
     </row>
     <row r="92" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="34" t="s">
-        <v>47</v>
+      <c r="B92" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C92" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="10"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -6149,88 +6223,88 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
       <c r="AE92" s="10"/>
-      <c r="AG92" s="0" t="s">
-        <v>81</v>
-      </c>
+      <c r="AF92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="31"/>
+      <c r="C93" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="D93" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="37"/>
-      <c r="X93" s="37"/>
-      <c r="Y93" s="37"/>
-      <c r="Z93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="38"/>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="31"/>
+      <c r="C94" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="41"/>
-      <c r="D94" s="12"/>
+      <c r="D94" s="42"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="37"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="37"/>
-      <c r="V94" s="37"/>
-      <c r="W94" s="37"/>
-      <c r="X94" s="37"/>
-      <c r="Y94" s="37"/>
-      <c r="Z94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="38"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="38"/>
+      <c r="X94" s="38"/>
+      <c r="Y94" s="38"/>
+      <c r="Z94" s="38"/>
       <c r="AA94" s="12"/>
       <c r="AB94" s="12"/>
       <c r="AC94" s="12"/>
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
+      <c r="AF94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C95" s="32"/>
-      <c r="D95" s="12"/>
+      <c r="D95" s="33"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
@@ -6252,32 +6326,35 @@
       <c r="W95" s="12"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
-      <c r="Z95" s="38"/>
-      <c r="AA95" s="38"/>
-      <c r="AB95" s="38"/>
-      <c r="AC95" s="38"/>
-      <c r="AD95" s="38"/>
-      <c r="AE95" s="38"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="39"/>
+      <c r="AB95" s="39"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
     </row>
     <row r="96" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="34" t="s">
-        <v>47</v>
+      <c r="B96" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C96" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="10"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -6297,88 +6374,88 @@
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
       <c r="AE96" s="10"/>
-      <c r="AG96" s="0" t="s">
-        <v>81</v>
-      </c>
+      <c r="AF96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="31"/>
+      <c r="C97" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="D97" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="37"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="37"/>
-      <c r="S97" s="37"/>
-      <c r="T97" s="37"/>
-      <c r="U97" s="37"/>
-      <c r="V97" s="37"/>
-      <c r="W97" s="37"/>
-      <c r="X97" s="37"/>
-      <c r="Y97" s="37"/>
-      <c r="Z97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="38"/>
+      <c r="V97" s="38"/>
+      <c r="W97" s="38"/>
+      <c r="X97" s="38"/>
+      <c r="Y97" s="38"/>
+      <c r="Z97" s="38"/>
       <c r="AA97" s="12"/>
       <c r="AB97" s="12"/>
       <c r="AC97" s="12"/>
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
+      <c r="AF97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="31"/>
+      <c r="C98" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="12"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="37"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="37"/>
-      <c r="X98" s="37"/>
-      <c r="Y98" s="37"/>
-      <c r="Z98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="38"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="38"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
+      <c r="X98" s="38"/>
+      <c r="Y98" s="38"/>
+      <c r="Z98" s="38"/>
       <c r="AA98" s="12"/>
       <c r="AB98" s="12"/>
       <c r="AC98" s="12"/>
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="31"/>
+      <c r="C99" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C99" s="41"/>
-      <c r="D99" s="12"/>
+      <c r="D99" s="42"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -6400,32 +6477,35 @@
       <c r="W99" s="12"/>
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
-      <c r="Z99" s="38"/>
-      <c r="AA99" s="38"/>
-      <c r="AB99" s="38"/>
-      <c r="AC99" s="38"/>
-      <c r="AD99" s="38"/>
-      <c r="AE99" s="38"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="39"/>
+      <c r="AB99" s="39"/>
+      <c r="AC99" s="39"/>
+      <c r="AD99" s="39"/>
+      <c r="AE99" s="39"/>
+      <c r="AF99" s="39"/>
     </row>
     <row r="100" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B100" s="34" t="s">
-        <v>47</v>
+      <c r="B100" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C100" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="10"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -6445,88 +6525,88 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
       <c r="AE100" s="10"/>
-      <c r="AG100" s="0" t="s">
-        <v>81</v>
-      </c>
+      <c r="AF100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="31"/>
+      <c r="C101" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="D101" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="37"/>
-      <c r="S101" s="37"/>
-      <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="37"/>
-      <c r="X101" s="37"/>
-      <c r="Y101" s="37"/>
-      <c r="Z101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
+      <c r="Q101" s="38"/>
+      <c r="R101" s="38"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="38"/>
+      <c r="U101" s="38"/>
+      <c r="V101" s="38"/>
+      <c r="W101" s="38"/>
+      <c r="X101" s="38"/>
+      <c r="Y101" s="38"/>
+      <c r="Z101" s="38"/>
       <c r="AA101" s="12"/>
       <c r="AB101" s="12"/>
       <c r="AC101" s="12"/>
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
+      <c r="AF101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="31"/>
+      <c r="C102" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="12"/>
+      <c r="D102" s="42"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="37"/>
-      <c r="S102" s="37"/>
-      <c r="T102" s="37"/>
-      <c r="U102" s="37"/>
-      <c r="V102" s="37"/>
-      <c r="W102" s="37"/>
-      <c r="X102" s="37"/>
-      <c r="Y102" s="37"/>
-      <c r="Z102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="38"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="38"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
+      <c r="Q102" s="38"/>
+      <c r="R102" s="38"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="38"/>
+      <c r="U102" s="38"/>
+      <c r="V102" s="38"/>
+      <c r="W102" s="38"/>
+      <c r="X102" s="38"/>
+      <c r="Y102" s="38"/>
+      <c r="Z102" s="38"/>
       <c r="AA102" s="12"/>
       <c r="AB102" s="12"/>
       <c r="AC102" s="12"/>
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
+      <c r="AF102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="31"/>
+      <c r="C103" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="12"/>
+      <c r="D103" s="42"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -6548,32 +6628,35 @@
       <c r="W103" s="12"/>
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
-      <c r="Z103" s="38"/>
-      <c r="AA103" s="38"/>
-      <c r="AB103" s="38"/>
-      <c r="AC103" s="38"/>
-      <c r="AD103" s="38"/>
-      <c r="AE103" s="38"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="39"/>
+      <c r="AB103" s="39"/>
+      <c r="AC103" s="39"/>
+      <c r="AD103" s="39"/>
+      <c r="AE103" s="39"/>
+      <c r="AF103" s="39"/>
     </row>
     <row r="104" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="34" t="s">
-        <v>47</v>
+      <c r="B104" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="C104" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="10"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
@@ -6593,88 +6676,88 @@
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
       <c r="AE104" s="10"/>
-      <c r="AG104" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="AF104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="31"/>
+      <c r="C105" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="D105" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="37"/>
-      <c r="O105" s="37"/>
-      <c r="P105" s="37"/>
-      <c r="Q105" s="37"/>
-      <c r="R105" s="37"/>
-      <c r="S105" s="37"/>
-      <c r="T105" s="37"/>
-      <c r="U105" s="37"/>
-      <c r="V105" s="37"/>
-      <c r="W105" s="37"/>
-      <c r="X105" s="37"/>
-      <c r="Y105" s="37"/>
-      <c r="Z105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38"/>
+      <c r="R105" s="38"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="38"/>
+      <c r="U105" s="38"/>
+      <c r="V105" s="38"/>
+      <c r="W105" s="38"/>
+      <c r="X105" s="38"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="38"/>
       <c r="AA105" s="12"/>
       <c r="AB105" s="12"/>
       <c r="AC105" s="12"/>
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
+      <c r="AF105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="31"/>
+      <c r="C106" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="41"/>
-      <c r="D106" s="12"/>
+      <c r="D106" s="42"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="37"/>
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
-      <c r="Q106" s="37"/>
-      <c r="R106" s="37"/>
-      <c r="S106" s="37"/>
-      <c r="T106" s="37"/>
-      <c r="U106" s="37"/>
-      <c r="V106" s="37"/>
-      <c r="W106" s="37"/>
-      <c r="X106" s="37"/>
-      <c r="Y106" s="37"/>
-      <c r="Z106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="38"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
+      <c r="Q106" s="38"/>
+      <c r="R106" s="38"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="38"/>
+      <c r="U106" s="38"/>
+      <c r="V106" s="38"/>
+      <c r="W106" s="38"/>
+      <c r="X106" s="38"/>
+      <c r="Y106" s="38"/>
+      <c r="Z106" s="38"/>
       <c r="AA106" s="12"/>
       <c r="AB106" s="12"/>
       <c r="AC106" s="12"/>
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
+      <c r="AF106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="31"/>
+      <c r="C107" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="12"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
@@ -6696,32 +6779,35 @@
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
-      <c r="Z107" s="38"/>
-      <c r="AA107" s="38"/>
-      <c r="AB107" s="38"/>
-      <c r="AC107" s="38"/>
-      <c r="AD107" s="38"/>
-      <c r="AE107" s="38"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="39"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="39"/>
+      <c r="AE107" s="39"/>
+      <c r="AF107" s="39"/>
     </row>
     <row r="108" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B108" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="39" t="s">
+      <c r="B108" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="10"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
@@ -6741,88 +6827,88 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
       <c r="AE108" s="10"/>
-      <c r="AG108" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="AF108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="31"/>
+      <c r="C109" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C109" s="39" t="s">
+      <c r="D109" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="37"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="37"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="37"/>
-      <c r="Q109" s="37"/>
-      <c r="R109" s="37"/>
-      <c r="S109" s="37"/>
-      <c r="T109" s="37"/>
-      <c r="U109" s="37"/>
-      <c r="V109" s="37"/>
-      <c r="W109" s="37"/>
-      <c r="X109" s="37"/>
-      <c r="Y109" s="37"/>
-      <c r="Z109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
+      <c r="R109" s="38"/>
+      <c r="S109" s="38"/>
+      <c r="T109" s="38"/>
+      <c r="U109" s="38"/>
+      <c r="V109" s="38"/>
+      <c r="W109" s="38"/>
+      <c r="X109" s="38"/>
+      <c r="Y109" s="38"/>
+      <c r="Z109" s="38"/>
       <c r="AA109" s="12"/>
       <c r="AB109" s="12"/>
       <c r="AC109" s="12"/>
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="31"/>
+      <c r="C110" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="12"/>
+      <c r="D110" s="33"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="37"/>
-      <c r="O110" s="37"/>
-      <c r="P110" s="37"/>
-      <c r="Q110" s="37"/>
-      <c r="R110" s="37"/>
-      <c r="S110" s="37"/>
-      <c r="T110" s="37"/>
-      <c r="U110" s="37"/>
-      <c r="V110" s="37"/>
-      <c r="W110" s="37"/>
-      <c r="X110" s="37"/>
-      <c r="Y110" s="37"/>
-      <c r="Z110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="38"/>
+      <c r="R110" s="38"/>
+      <c r="S110" s="38"/>
+      <c r="T110" s="38"/>
+      <c r="U110" s="38"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
+      <c r="X110" s="38"/>
+      <c r="Y110" s="38"/>
+      <c r="Z110" s="38"/>
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
       <c r="AC110" s="12"/>
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="31"/>
+      <c r="C111" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="12"/>
+      <c r="D111" s="42"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
@@ -6844,32 +6930,35 @@
       <c r="W111" s="12"/>
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
-      <c r="Z111" s="38"/>
-      <c r="AA111" s="38"/>
-      <c r="AB111" s="38"/>
-      <c r="AC111" s="38"/>
-      <c r="AD111" s="38"/>
-      <c r="AE111" s="38"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="39"/>
+      <c r="AB111" s="39"/>
+      <c r="AC111" s="39"/>
+      <c r="AD111" s="39"/>
+      <c r="AE111" s="39"/>
+      <c r="AF111" s="39"/>
     </row>
     <row r="112" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="39" t="s">
+      <c r="B112" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="10"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -6889,88 +6978,88 @@
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
       <c r="AE112" s="10"/>
-      <c r="AG112" s="0" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="31"/>
+      <c r="C113" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C113" s="39" t="s">
+      <c r="D113" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="37"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="37"/>
-      <c r="O113" s="37"/>
-      <c r="P113" s="37"/>
-      <c r="Q113" s="37"/>
-      <c r="R113" s="37"/>
-      <c r="S113" s="37"/>
-      <c r="T113" s="37"/>
-      <c r="U113" s="37"/>
-      <c r="V113" s="37"/>
-      <c r="W113" s="37"/>
-      <c r="X113" s="37"/>
-      <c r="Y113" s="37"/>
-      <c r="Z113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="38"/>
+      <c r="O113" s="38"/>
+      <c r="P113" s="38"/>
+      <c r="Q113" s="38"/>
+      <c r="R113" s="38"/>
+      <c r="S113" s="38"/>
+      <c r="T113" s="38"/>
+      <c r="U113" s="38"/>
+      <c r="V113" s="38"/>
+      <c r="W113" s="38"/>
+      <c r="X113" s="38"/>
+      <c r="Y113" s="38"/>
+      <c r="Z113" s="38"/>
       <c r="AA113" s="12"/>
       <c r="AB113" s="12"/>
       <c r="AC113" s="12"/>
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
+      <c r="AF113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="31"/>
+      <c r="C114" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C114" s="41"/>
-      <c r="D114" s="12"/>
+      <c r="D114" s="42"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="37"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="37"/>
-      <c r="O114" s="37"/>
-      <c r="P114" s="37"/>
-      <c r="Q114" s="37"/>
-      <c r="R114" s="37"/>
-      <c r="S114" s="37"/>
-      <c r="T114" s="37"/>
-      <c r="U114" s="37"/>
-      <c r="V114" s="37"/>
-      <c r="W114" s="37"/>
-      <c r="X114" s="37"/>
-      <c r="Y114" s="37"/>
-      <c r="Z114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="38"/>
+      <c r="O114" s="38"/>
+      <c r="P114" s="38"/>
+      <c r="Q114" s="38"/>
+      <c r="R114" s="38"/>
+      <c r="S114" s="38"/>
+      <c r="T114" s="38"/>
+      <c r="U114" s="38"/>
+      <c r="V114" s="38"/>
+      <c r="W114" s="38"/>
+      <c r="X114" s="38"/>
+      <c r="Y114" s="38"/>
+      <c r="Z114" s="38"/>
       <c r="AA114" s="12"/>
       <c r="AB114" s="12"/>
       <c r="AC114" s="12"/>
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
+      <c r="AF114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="31"/>
+      <c r="C115" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C115" s="41"/>
-      <c r="D115" s="12"/>
+      <c r="D115" s="42"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
@@ -6992,32 +7081,35 @@
       <c r="W115" s="12"/>
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
-      <c r="Z115" s="38"/>
-      <c r="AA115" s="38"/>
-      <c r="AB115" s="38"/>
-      <c r="AC115" s="38"/>
-      <c r="AD115" s="38"/>
-      <c r="AE115" s="38"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="39"/>
+      <c r="AB115" s="39"/>
+      <c r="AC115" s="39"/>
+      <c r="AD115" s="39"/>
+      <c r="AE115" s="39"/>
+      <c r="AF115" s="39"/>
     </row>
     <row r="116" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B116" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" s="39" t="s">
+      <c r="B116" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="10"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="37"/>
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
@@ -7037,88 +7129,88 @@
       <c r="AC116" s="10"/>
       <c r="AD116" s="10"/>
       <c r="AE116" s="10"/>
-      <c r="AG116" s="0" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="31"/>
+      <c r="C117" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="39" t="s">
+      <c r="D117" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="37"/>
-      <c r="L117" s="37"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="37"/>
-      <c r="O117" s="37"/>
-      <c r="P117" s="37"/>
-      <c r="Q117" s="37"/>
-      <c r="R117" s="37"/>
-      <c r="S117" s="37"/>
-      <c r="T117" s="37"/>
-      <c r="U117" s="37"/>
-      <c r="V117" s="37"/>
-      <c r="W117" s="37"/>
-      <c r="X117" s="37"/>
-      <c r="Y117" s="37"/>
-      <c r="Z117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="38"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="38"/>
+      <c r="O117" s="38"/>
+      <c r="P117" s="38"/>
+      <c r="Q117" s="38"/>
+      <c r="R117" s="38"/>
+      <c r="S117" s="38"/>
+      <c r="T117" s="38"/>
+      <c r="U117" s="38"/>
+      <c r="V117" s="38"/>
+      <c r="W117" s="38"/>
+      <c r="X117" s="38"/>
+      <c r="Y117" s="38"/>
+      <c r="Z117" s="38"/>
       <c r="AA117" s="12"/>
       <c r="AB117" s="12"/>
       <c r="AC117" s="12"/>
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
+      <c r="AF117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="31"/>
+      <c r="C118" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="41"/>
-      <c r="D118" s="12"/>
+      <c r="D118" s="42"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="37"/>
-      <c r="L118" s="37"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="37"/>
-      <c r="O118" s="37"/>
-      <c r="P118" s="37"/>
-      <c r="Q118" s="37"/>
-      <c r="R118" s="37"/>
-      <c r="S118" s="37"/>
-      <c r="T118" s="37"/>
-      <c r="U118" s="37"/>
-      <c r="V118" s="37"/>
-      <c r="W118" s="37"/>
-      <c r="X118" s="37"/>
-      <c r="Y118" s="37"/>
-      <c r="Z118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="38"/>
+      <c r="O118" s="38"/>
+      <c r="P118" s="38"/>
+      <c r="Q118" s="38"/>
+      <c r="R118" s="38"/>
+      <c r="S118" s="38"/>
+      <c r="T118" s="38"/>
+      <c r="U118" s="38"/>
+      <c r="V118" s="38"/>
+      <c r="W118" s="38"/>
+      <c r="X118" s="38"/>
+      <c r="Y118" s="38"/>
+      <c r="Z118" s="38"/>
       <c r="AA118" s="12"/>
       <c r="AB118" s="12"/>
       <c r="AC118" s="12"/>
       <c r="AD118" s="12"/>
       <c r="AE118" s="12"/>
+      <c r="AF118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="31"/>
+      <c r="C119" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="12"/>
+      <c r="D119" s="33"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
@@ -7140,32 +7232,35 @@
       <c r="W119" s="12"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
-      <c r="Z119" s="38"/>
-      <c r="AA119" s="38"/>
-      <c r="AB119" s="38"/>
-      <c r="AC119" s="38"/>
-      <c r="AD119" s="38"/>
-      <c r="AE119" s="38"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="39"/>
+      <c r="AB119" s="39"/>
+      <c r="AC119" s="39"/>
+      <c r="AD119" s="39"/>
+      <c r="AE119" s="39"/>
+      <c r="AF119" s="39"/>
     </row>
     <row r="120" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C120" s="39" t="s">
+      <c r="B120" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
-      <c r="L120" s="10"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -7185,87 +7280,87 @@
       <c r="AC120" s="10"/>
       <c r="AD120" s="10"/>
       <c r="AE120" s="10"/>
-      <c r="AG120" s="0" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="31"/>
+      <c r="C121" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C121" s="39" t="s">
+      <c r="D121" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="37"/>
-      <c r="L121" s="37"/>
-      <c r="M121" s="37"/>
-      <c r="N121" s="37"/>
-      <c r="O121" s="37"/>
-      <c r="P121" s="37"/>
-      <c r="Q121" s="37"/>
-      <c r="R121" s="37"/>
-      <c r="S121" s="37"/>
-      <c r="T121" s="37"/>
-      <c r="U121" s="37"/>
-      <c r="V121" s="37"/>
-      <c r="W121" s="37"/>
-      <c r="X121" s="37"/>
-      <c r="Y121" s="37"/>
-      <c r="Z121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="38"/>
+      <c r="L121" s="38"/>
+      <c r="M121" s="38"/>
+      <c r="N121" s="38"/>
+      <c r="O121" s="38"/>
+      <c r="P121" s="38"/>
+      <c r="Q121" s="38"/>
+      <c r="R121" s="38"/>
+      <c r="S121" s="38"/>
+      <c r="T121" s="38"/>
+      <c r="U121" s="38"/>
+      <c r="V121" s="38"/>
+      <c r="W121" s="38"/>
+      <c r="X121" s="38"/>
+      <c r="Y121" s="38"/>
+      <c r="Z121" s="38"/>
       <c r="AA121" s="12"/>
       <c r="AB121" s="12"/>
       <c r="AC121" s="12"/>
       <c r="AD121" s="12"/>
       <c r="AE121" s="12"/>
+      <c r="AF121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="31"/>
+      <c r="C122" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="37"/>
-      <c r="L122" s="37"/>
-      <c r="M122" s="37"/>
-      <c r="N122" s="37"/>
-      <c r="O122" s="37"/>
-      <c r="P122" s="37"/>
-      <c r="Q122" s="37"/>
-      <c r="R122" s="37"/>
-      <c r="S122" s="37"/>
-      <c r="T122" s="37"/>
-      <c r="U122" s="37"/>
-      <c r="V122" s="37"/>
-      <c r="W122" s="37"/>
-      <c r="X122" s="37"/>
-      <c r="Y122" s="37"/>
-      <c r="Z122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="38"/>
+      <c r="L122" s="38"/>
+      <c r="M122" s="38"/>
+      <c r="N122" s="38"/>
+      <c r="O122" s="38"/>
+      <c r="P122" s="38"/>
+      <c r="Q122" s="38"/>
+      <c r="R122" s="38"/>
+      <c r="S122" s="38"/>
+      <c r="T122" s="38"/>
+      <c r="U122" s="38"/>
+      <c r="V122" s="38"/>
+      <c r="W122" s="38"/>
+      <c r="X122" s="38"/>
+      <c r="Y122" s="38"/>
+      <c r="Z122" s="38"/>
       <c r="AA122" s="12"/>
       <c r="AB122" s="12"/>
       <c r="AC122" s="12"/>
       <c r="AD122" s="12"/>
       <c r="AE122" s="12"/>
+      <c r="AF122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="31"/>
+      <c r="C123" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C123" s="41"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="42"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -7287,32 +7382,35 @@
       <c r="W123" s="12"/>
       <c r="X123" s="12"/>
       <c r="Y123" s="12"/>
-      <c r="Z123" s="38"/>
-      <c r="AA123" s="38"/>
-      <c r="AB123" s="38"/>
-      <c r="AC123" s="38"/>
-      <c r="AD123" s="38"/>
-      <c r="AE123" s="38"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="39"/>
+      <c r="AB123" s="39"/>
+      <c r="AC123" s="39"/>
+      <c r="AD123" s="39"/>
+      <c r="AE123" s="39"/>
+      <c r="AF123" s="39"/>
     </row>
     <row r="124" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124" s="39" t="s">
+      <c r="B124" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
-      <c r="L124" s="10"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="37"/>
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -7332,88 +7430,88 @@
       <c r="AC124" s="10"/>
       <c r="AD124" s="10"/>
       <c r="AE124" s="10"/>
-      <c r="AG124" s="0" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="31"/>
+      <c r="C125" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="39" t="s">
+      <c r="D125" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="37"/>
-      <c r="O125" s="37"/>
-      <c r="P125" s="37"/>
-      <c r="Q125" s="37"/>
-      <c r="R125" s="37"/>
-      <c r="S125" s="37"/>
-      <c r="T125" s="37"/>
-      <c r="U125" s="37"/>
-      <c r="V125" s="37"/>
-      <c r="W125" s="37"/>
-      <c r="X125" s="37"/>
-      <c r="Y125" s="37"/>
-      <c r="Z125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="38"/>
+      <c r="L125" s="38"/>
+      <c r="M125" s="38"/>
+      <c r="N125" s="38"/>
+      <c r="O125" s="38"/>
+      <c r="P125" s="38"/>
+      <c r="Q125" s="38"/>
+      <c r="R125" s="38"/>
+      <c r="S125" s="38"/>
+      <c r="T125" s="38"/>
+      <c r="U125" s="38"/>
+      <c r="V125" s="38"/>
+      <c r="W125" s="38"/>
+      <c r="X125" s="38"/>
+      <c r="Y125" s="38"/>
+      <c r="Z125" s="38"/>
       <c r="AA125" s="12"/>
       <c r="AB125" s="12"/>
       <c r="AC125" s="12"/>
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
+      <c r="AF125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="31"/>
+      <c r="C126" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="42"/>
-      <c r="D126" s="12"/>
+      <c r="D126" s="43"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="37"/>
-      <c r="M126" s="37"/>
-      <c r="N126" s="37"/>
-      <c r="O126" s="37"/>
-      <c r="P126" s="37"/>
-      <c r="Q126" s="37"/>
-      <c r="R126" s="37"/>
-      <c r="S126" s="37"/>
-      <c r="T126" s="37"/>
-      <c r="U126" s="37"/>
-      <c r="V126" s="37"/>
-      <c r="W126" s="37"/>
-      <c r="X126" s="37"/>
-      <c r="Y126" s="37"/>
-      <c r="Z126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="38"/>
+      <c r="L126" s="38"/>
+      <c r="M126" s="38"/>
+      <c r="N126" s="38"/>
+      <c r="O126" s="38"/>
+      <c r="P126" s="38"/>
+      <c r="Q126" s="38"/>
+      <c r="R126" s="38"/>
+      <c r="S126" s="38"/>
+      <c r="T126" s="38"/>
+      <c r="U126" s="38"/>
+      <c r="V126" s="38"/>
+      <c r="W126" s="38"/>
+      <c r="X126" s="38"/>
+      <c r="Y126" s="38"/>
+      <c r="Z126" s="38"/>
       <c r="AA126" s="12"/>
       <c r="AB126" s="12"/>
       <c r="AC126" s="12"/>
       <c r="AD126" s="12"/>
       <c r="AE126" s="12"/>
+      <c r="AF126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="31"/>
+      <c r="C127" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C127" s="42"/>
-      <c r="D127" s="12"/>
+      <c r="D127" s="43"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -7435,32 +7533,35 @@
       <c r="W127" s="12"/>
       <c r="X127" s="12"/>
       <c r="Y127" s="12"/>
-      <c r="Z127" s="38"/>
-      <c r="AA127" s="38"/>
-      <c r="AB127" s="38"/>
-      <c r="AC127" s="38"/>
-      <c r="AD127" s="38"/>
-      <c r="AE127" s="38"/>
+      <c r="Z127" s="12"/>
+      <c r="AA127" s="39"/>
+      <c r="AB127" s="39"/>
+      <c r="AC127" s="39"/>
+      <c r="AD127" s="39"/>
+      <c r="AE127" s="39"/>
+      <c r="AF127" s="39"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B128" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C128" s="39" t="s">
+      <c r="B128" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
-      <c r="L128" s="10"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
@@ -7480,88 +7581,88 @@
       <c r="AC128" s="10"/>
       <c r="AD128" s="10"/>
       <c r="AE128" s="10"/>
-      <c r="AG128" s="0" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="31"/>
+      <c r="C129" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="39" t="s">
+      <c r="D129" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="37"/>
-      <c r="L129" s="37"/>
-      <c r="M129" s="37"/>
-      <c r="N129" s="37"/>
-      <c r="O129" s="37"/>
-      <c r="P129" s="37"/>
-      <c r="Q129" s="37"/>
-      <c r="R129" s="37"/>
-      <c r="S129" s="37"/>
-      <c r="T129" s="37"/>
-      <c r="U129" s="37"/>
-      <c r="V129" s="37"/>
-      <c r="W129" s="37"/>
-      <c r="X129" s="37"/>
-      <c r="Y129" s="37"/>
-      <c r="Z129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="38"/>
+      <c r="L129" s="38"/>
+      <c r="M129" s="38"/>
+      <c r="N129" s="38"/>
+      <c r="O129" s="38"/>
+      <c r="P129" s="38"/>
+      <c r="Q129" s="38"/>
+      <c r="R129" s="38"/>
+      <c r="S129" s="38"/>
+      <c r="T129" s="38"/>
+      <c r="U129" s="38"/>
+      <c r="V129" s="38"/>
+      <c r="W129" s="38"/>
+      <c r="X129" s="38"/>
+      <c r="Y129" s="38"/>
+      <c r="Z129" s="38"/>
       <c r="AA129" s="12"/>
       <c r="AB129" s="12"/>
       <c r="AC129" s="12"/>
       <c r="AD129" s="12"/>
       <c r="AE129" s="12"/>
+      <c r="AF129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="31"/>
+      <c r="C130" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="42"/>
-      <c r="D130" s="12"/>
+      <c r="D130" s="43"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="37"/>
-      <c r="N130" s="37"/>
-      <c r="O130" s="37"/>
-      <c r="P130" s="37"/>
-      <c r="Q130" s="37"/>
-      <c r="R130" s="37"/>
-      <c r="S130" s="37"/>
-      <c r="T130" s="37"/>
-      <c r="U130" s="37"/>
-      <c r="V130" s="37"/>
-      <c r="W130" s="37"/>
-      <c r="X130" s="37"/>
-      <c r="Y130" s="37"/>
-      <c r="Z130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="38"/>
+      <c r="L130" s="38"/>
+      <c r="M130" s="38"/>
+      <c r="N130" s="38"/>
+      <c r="O130" s="38"/>
+      <c r="P130" s="38"/>
+      <c r="Q130" s="38"/>
+      <c r="R130" s="38"/>
+      <c r="S130" s="38"/>
+      <c r="T130" s="38"/>
+      <c r="U130" s="38"/>
+      <c r="V130" s="38"/>
+      <c r="W130" s="38"/>
+      <c r="X130" s="38"/>
+      <c r="Y130" s="38"/>
+      <c r="Z130" s="38"/>
       <c r="AA130" s="12"/>
       <c r="AB130" s="12"/>
       <c r="AC130" s="12"/>
       <c r="AD130" s="12"/>
       <c r="AE130" s="12"/>
+      <c r="AF130" s="12"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
-      <c r="B131" s="19" t="s">
+      <c r="B131" s="31"/>
+      <c r="C131" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="42"/>
-      <c r="D131" s="12"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -7583,32 +7684,35 @@
       <c r="W131" s="12"/>
       <c r="X131" s="12"/>
       <c r="Y131" s="12"/>
-      <c r="Z131" s="38"/>
-      <c r="AA131" s="38"/>
-      <c r="AB131" s="38"/>
-      <c r="AC131" s="38"/>
-      <c r="AD131" s="38"/>
-      <c r="AE131" s="38"/>
+      <c r="Z131" s="12"/>
+      <c r="AA131" s="39"/>
+      <c r="AB131" s="39"/>
+      <c r="AC131" s="39"/>
+      <c r="AD131" s="39"/>
+      <c r="AE131" s="39"/>
+      <c r="AF131" s="39"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B132" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C132" s="39" t="s">
+      <c r="B132" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="10"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="37"/>
+      <c r="K132" s="37"/>
+      <c r="L132" s="37"/>
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
@@ -7628,88 +7732,88 @@
       <c r="AC132" s="10"/>
       <c r="AD132" s="10"/>
       <c r="AE132" s="10"/>
-      <c r="AG132" s="0" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="31"/>
+      <c r="C133" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C133" s="39" t="s">
+      <c r="D133" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
-      <c r="J133" s="37"/>
-      <c r="K133" s="37"/>
-      <c r="L133" s="37"/>
-      <c r="M133" s="37"/>
-      <c r="N133" s="37"/>
-      <c r="O133" s="37"/>
-      <c r="P133" s="37"/>
-      <c r="Q133" s="37"/>
-      <c r="R133" s="37"/>
-      <c r="S133" s="37"/>
-      <c r="T133" s="37"/>
-      <c r="U133" s="37"/>
-      <c r="V133" s="37"/>
-      <c r="W133" s="37"/>
-      <c r="X133" s="37"/>
-      <c r="Y133" s="37"/>
-      <c r="Z133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
+      <c r="M133" s="38"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="38"/>
+      <c r="P133" s="38"/>
+      <c r="Q133" s="38"/>
+      <c r="R133" s="38"/>
+      <c r="S133" s="38"/>
+      <c r="T133" s="38"/>
+      <c r="U133" s="38"/>
+      <c r="V133" s="38"/>
+      <c r="W133" s="38"/>
+      <c r="X133" s="38"/>
+      <c r="Y133" s="38"/>
+      <c r="Z133" s="38"/>
       <c r="AA133" s="12"/>
       <c r="AB133" s="12"/>
       <c r="AC133" s="12"/>
       <c r="AD133" s="12"/>
       <c r="AE133" s="12"/>
+      <c r="AF133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="31"/>
+      <c r="C134" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C134" s="42"/>
-      <c r="D134" s="12"/>
+      <c r="D134" s="43"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
-      <c r="J134" s="37"/>
-      <c r="K134" s="37"/>
-      <c r="L134" s="37"/>
-      <c r="M134" s="37"/>
-      <c r="N134" s="37"/>
-      <c r="O134" s="37"/>
-      <c r="P134" s="37"/>
-      <c r="Q134" s="37"/>
-      <c r="R134" s="37"/>
-      <c r="S134" s="37"/>
-      <c r="T134" s="37"/>
-      <c r="U134" s="37"/>
-      <c r="V134" s="37"/>
-      <c r="W134" s="37"/>
-      <c r="X134" s="37"/>
-      <c r="Y134" s="37"/>
-      <c r="Z134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="38"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="38"/>
+      <c r="N134" s="38"/>
+      <c r="O134" s="38"/>
+      <c r="P134" s="38"/>
+      <c r="Q134" s="38"/>
+      <c r="R134" s="38"/>
+      <c r="S134" s="38"/>
+      <c r="T134" s="38"/>
+      <c r="U134" s="38"/>
+      <c r="V134" s="38"/>
+      <c r="W134" s="38"/>
+      <c r="X134" s="38"/>
+      <c r="Y134" s="38"/>
+      <c r="Z134" s="38"/>
       <c r="AA134" s="12"/>
       <c r="AB134" s="12"/>
       <c r="AC134" s="12"/>
       <c r="AD134" s="12"/>
       <c r="AE134" s="12"/>
+      <c r="AF134" s="12"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
-      <c r="B135" s="19" t="s">
+      <c r="B135" s="31"/>
+      <c r="C135" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C135" s="42"/>
-      <c r="D135" s="12"/>
+      <c r="D135" s="43"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
@@ -7731,32 +7835,35 @@
       <c r="W135" s="12"/>
       <c r="X135" s="12"/>
       <c r="Y135" s="12"/>
-      <c r="Z135" s="38"/>
-      <c r="AA135" s="38"/>
-      <c r="AB135" s="38"/>
-      <c r="AC135" s="38"/>
-      <c r="AD135" s="38"/>
-      <c r="AE135" s="38"/>
+      <c r="Z135" s="12"/>
+      <c r="AA135" s="39"/>
+      <c r="AB135" s="39"/>
+      <c r="AC135" s="39"/>
+      <c r="AD135" s="39"/>
+      <c r="AE135" s="39"/>
+      <c r="AF135" s="39"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B136" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C136" s="39" t="s">
+      <c r="B136" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="10"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="37"/>
+      <c r="L136" s="37"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
@@ -7776,88 +7883,88 @@
       <c r="AC136" s="10"/>
       <c r="AD136" s="10"/>
       <c r="AE136" s="10"/>
-      <c r="AG136" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="AF136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="31"/>
+      <c r="C137" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="39" t="s">
+      <c r="D137" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
-      <c r="J137" s="37"/>
-      <c r="K137" s="37"/>
-      <c r="L137" s="37"/>
-      <c r="M137" s="37"/>
-      <c r="N137" s="37"/>
-      <c r="O137" s="37"/>
-      <c r="P137" s="37"/>
-      <c r="Q137" s="37"/>
-      <c r="R137" s="37"/>
-      <c r="S137" s="37"/>
-      <c r="T137" s="37"/>
-      <c r="U137" s="37"/>
-      <c r="V137" s="37"/>
-      <c r="W137" s="37"/>
-      <c r="X137" s="37"/>
-      <c r="Y137" s="37"/>
-      <c r="Z137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="38"/>
+      <c r="L137" s="38"/>
+      <c r="M137" s="38"/>
+      <c r="N137" s="38"/>
+      <c r="O137" s="38"/>
+      <c r="P137" s="38"/>
+      <c r="Q137" s="38"/>
+      <c r="R137" s="38"/>
+      <c r="S137" s="38"/>
+      <c r="T137" s="38"/>
+      <c r="U137" s="38"/>
+      <c r="V137" s="38"/>
+      <c r="W137" s="38"/>
+      <c r="X137" s="38"/>
+      <c r="Y137" s="38"/>
+      <c r="Z137" s="38"/>
       <c r="AA137" s="12"/>
       <c r="AB137" s="12"/>
       <c r="AC137" s="12"/>
       <c r="AD137" s="12"/>
       <c r="AE137" s="12"/>
+      <c r="AF137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="31"/>
+      <c r="C138" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C138" s="42"/>
-      <c r="D138" s="12"/>
+      <c r="D138" s="43"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
-      <c r="J138" s="37"/>
-      <c r="K138" s="37"/>
-      <c r="L138" s="37"/>
-      <c r="M138" s="37"/>
-      <c r="N138" s="37"/>
-      <c r="O138" s="37"/>
-      <c r="P138" s="37"/>
-      <c r="Q138" s="37"/>
-      <c r="R138" s="37"/>
-      <c r="S138" s="37"/>
-      <c r="T138" s="37"/>
-      <c r="U138" s="37"/>
-      <c r="V138" s="37"/>
-      <c r="W138" s="37"/>
-      <c r="X138" s="37"/>
-      <c r="Y138" s="37"/>
-      <c r="Z138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="38"/>
+      <c r="L138" s="38"/>
+      <c r="M138" s="38"/>
+      <c r="N138" s="38"/>
+      <c r="O138" s="38"/>
+      <c r="P138" s="38"/>
+      <c r="Q138" s="38"/>
+      <c r="R138" s="38"/>
+      <c r="S138" s="38"/>
+      <c r="T138" s="38"/>
+      <c r="U138" s="38"/>
+      <c r="V138" s="38"/>
+      <c r="W138" s="38"/>
+      <c r="X138" s="38"/>
+      <c r="Y138" s="38"/>
+      <c r="Z138" s="38"/>
       <c r="AA138" s="12"/>
       <c r="AB138" s="12"/>
       <c r="AC138" s="12"/>
       <c r="AD138" s="12"/>
       <c r="AE138" s="12"/>
+      <c r="AF138" s="12"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="31"/>
+      <c r="C139" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C139" s="42"/>
-      <c r="D139" s="12"/>
+      <c r="D139" s="43"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
@@ -7879,32 +7986,35 @@
       <c r="W139" s="12"/>
       <c r="X139" s="12"/>
       <c r="Y139" s="12"/>
-      <c r="Z139" s="38"/>
-      <c r="AA139" s="38"/>
-      <c r="AB139" s="38"/>
-      <c r="AC139" s="38"/>
-      <c r="AD139" s="38"/>
-      <c r="AE139" s="38"/>
+      <c r="Z139" s="12"/>
+      <c r="AA139" s="39"/>
+      <c r="AB139" s="39"/>
+      <c r="AC139" s="39"/>
+      <c r="AD139" s="39"/>
+      <c r="AE139" s="39"/>
+      <c r="AF139" s="39"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B140" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C140" s="39" t="s">
+      <c r="B140" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="10"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="37"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="37"/>
+      <c r="K140" s="37"/>
+      <c r="L140" s="37"/>
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
@@ -7924,88 +8034,88 @@
       <c r="AC140" s="10"/>
       <c r="AD140" s="10"/>
       <c r="AE140" s="10"/>
-      <c r="AG140" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="AF140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="31"/>
+      <c r="C141" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C141" s="39" t="s">
+      <c r="D141" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
-      <c r="J141" s="37"/>
-      <c r="K141" s="37"/>
-      <c r="L141" s="37"/>
-      <c r="M141" s="37"/>
-      <c r="N141" s="37"/>
-      <c r="O141" s="37"/>
-      <c r="P141" s="37"/>
-      <c r="Q141" s="37"/>
-      <c r="R141" s="37"/>
-      <c r="S141" s="37"/>
-      <c r="T141" s="37"/>
-      <c r="U141" s="37"/>
-      <c r="V141" s="37"/>
-      <c r="W141" s="37"/>
-      <c r="X141" s="37"/>
-      <c r="Y141" s="37"/>
-      <c r="Z141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="38"/>
+      <c r="L141" s="38"/>
+      <c r="M141" s="38"/>
+      <c r="N141" s="38"/>
+      <c r="O141" s="38"/>
+      <c r="P141" s="38"/>
+      <c r="Q141" s="38"/>
+      <c r="R141" s="38"/>
+      <c r="S141" s="38"/>
+      <c r="T141" s="38"/>
+      <c r="U141" s="38"/>
+      <c r="V141" s="38"/>
+      <c r="W141" s="38"/>
+      <c r="X141" s="38"/>
+      <c r="Y141" s="38"/>
+      <c r="Z141" s="38"/>
       <c r="AA141" s="12"/>
       <c r="AB141" s="12"/>
       <c r="AC141" s="12"/>
       <c r="AD141" s="12"/>
       <c r="AE141" s="12"/>
+      <c r="AF141" s="12"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="31"/>
+      <c r="C142" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C142" s="42"/>
-      <c r="D142" s="12"/>
+      <c r="D142" s="43"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="37"/>
-      <c r="L142" s="37"/>
-      <c r="M142" s="37"/>
-      <c r="N142" s="37"/>
-      <c r="O142" s="37"/>
-      <c r="P142" s="37"/>
-      <c r="Q142" s="37"/>
-      <c r="R142" s="37"/>
-      <c r="S142" s="37"/>
-      <c r="T142" s="37"/>
-      <c r="U142" s="37"/>
-      <c r="V142" s="37"/>
-      <c r="W142" s="37"/>
-      <c r="X142" s="37"/>
-      <c r="Y142" s="37"/>
-      <c r="Z142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="38"/>
+      <c r="L142" s="38"/>
+      <c r="M142" s="38"/>
+      <c r="N142" s="38"/>
+      <c r="O142" s="38"/>
+      <c r="P142" s="38"/>
+      <c r="Q142" s="38"/>
+      <c r="R142" s="38"/>
+      <c r="S142" s="38"/>
+      <c r="T142" s="38"/>
+      <c r="U142" s="38"/>
+      <c r="V142" s="38"/>
+      <c r="W142" s="38"/>
+      <c r="X142" s="38"/>
+      <c r="Y142" s="38"/>
+      <c r="Z142" s="38"/>
       <c r="AA142" s="12"/>
       <c r="AB142" s="12"/>
       <c r="AC142" s="12"/>
       <c r="AD142" s="12"/>
       <c r="AE142" s="12"/>
+      <c r="AF142" s="12"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="31"/>
+      <c r="C143" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C143" s="42"/>
-      <c r="D143" s="12"/>
+      <c r="D143" s="43"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
@@ -8027,32 +8137,35 @@
       <c r="W143" s="12"/>
       <c r="X143" s="12"/>
       <c r="Y143" s="12"/>
-      <c r="Z143" s="38"/>
-      <c r="AA143" s="38"/>
-      <c r="AB143" s="38"/>
-      <c r="AC143" s="38"/>
-      <c r="AD143" s="38"/>
-      <c r="AE143" s="38"/>
+      <c r="Z143" s="12"/>
+      <c r="AA143" s="39"/>
+      <c r="AB143" s="39"/>
+      <c r="AC143" s="39"/>
+      <c r="AD143" s="39"/>
+      <c r="AE143" s="39"/>
+      <c r="AF143" s="39"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B144" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C144" s="39" t="s">
+      <c r="B144" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="36"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="36"/>
-      <c r="L144" s="10"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="37"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
+      <c r="L144" s="37"/>
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
@@ -8072,88 +8185,88 @@
       <c r="AC144" s="10"/>
       <c r="AD144" s="10"/>
       <c r="AE144" s="10"/>
-      <c r="AG144" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="AF144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="31"/>
+      <c r="C145" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C145" s="39" t="s">
+      <c r="D145" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
-      <c r="J145" s="37"/>
-      <c r="K145" s="37"/>
-      <c r="L145" s="37"/>
-      <c r="M145" s="37"/>
-      <c r="N145" s="37"/>
-      <c r="O145" s="37"/>
-      <c r="P145" s="37"/>
-      <c r="Q145" s="37"/>
-      <c r="R145" s="37"/>
-      <c r="S145" s="37"/>
-      <c r="T145" s="37"/>
-      <c r="U145" s="37"/>
-      <c r="V145" s="37"/>
-      <c r="W145" s="37"/>
-      <c r="X145" s="37"/>
-      <c r="Y145" s="37"/>
-      <c r="Z145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="38"/>
+      <c r="L145" s="38"/>
+      <c r="M145" s="38"/>
+      <c r="N145" s="38"/>
+      <c r="O145" s="38"/>
+      <c r="P145" s="38"/>
+      <c r="Q145" s="38"/>
+      <c r="R145" s="38"/>
+      <c r="S145" s="38"/>
+      <c r="T145" s="38"/>
+      <c r="U145" s="38"/>
+      <c r="V145" s="38"/>
+      <c r="W145" s="38"/>
+      <c r="X145" s="38"/>
+      <c r="Y145" s="38"/>
+      <c r="Z145" s="38"/>
       <c r="AA145" s="12"/>
       <c r="AB145" s="12"/>
       <c r="AC145" s="12"/>
       <c r="AD145" s="12"/>
       <c r="AE145" s="12"/>
+      <c r="AF145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="31"/>
+      <c r="C146" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C146" s="42"/>
-      <c r="D146" s="12"/>
+      <c r="D146" s="43"/>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="37"/>
-      <c r="L146" s="37"/>
-      <c r="M146" s="37"/>
-      <c r="N146" s="37"/>
-      <c r="O146" s="37"/>
-      <c r="P146" s="37"/>
-      <c r="Q146" s="37"/>
-      <c r="R146" s="37"/>
-      <c r="S146" s="37"/>
-      <c r="T146" s="37"/>
-      <c r="U146" s="37"/>
-      <c r="V146" s="37"/>
-      <c r="W146" s="37"/>
-      <c r="X146" s="37"/>
-      <c r="Y146" s="37"/>
-      <c r="Z146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="38"/>
+      <c r="L146" s="38"/>
+      <c r="M146" s="38"/>
+      <c r="N146" s="38"/>
+      <c r="O146" s="38"/>
+      <c r="P146" s="38"/>
+      <c r="Q146" s="38"/>
+      <c r="R146" s="38"/>
+      <c r="S146" s="38"/>
+      <c r="T146" s="38"/>
+      <c r="U146" s="38"/>
+      <c r="V146" s="38"/>
+      <c r="W146" s="38"/>
+      <c r="X146" s="38"/>
+      <c r="Y146" s="38"/>
+      <c r="Z146" s="38"/>
       <c r="AA146" s="12"/>
       <c r="AB146" s="12"/>
       <c r="AC146" s="12"/>
       <c r="AD146" s="12"/>
       <c r="AE146" s="12"/>
+      <c r="AF146" s="12"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="31"/>
+      <c r="C147" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C147" s="42"/>
-      <c r="D147" s="12"/>
+      <c r="D147" s="43"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
@@ -8175,32 +8288,35 @@
       <c r="W147" s="12"/>
       <c r="X147" s="12"/>
       <c r="Y147" s="12"/>
-      <c r="Z147" s="38"/>
-      <c r="AA147" s="38"/>
-      <c r="AB147" s="38"/>
-      <c r="AC147" s="38"/>
-      <c r="AD147" s="38"/>
-      <c r="AE147" s="38"/>
+      <c r="Z147" s="12"/>
+      <c r="AA147" s="39"/>
+      <c r="AB147" s="39"/>
+      <c r="AC147" s="39"/>
+      <c r="AD147" s="39"/>
+      <c r="AE147" s="39"/>
+      <c r="AF147" s="39"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B148" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C148" s="39" t="s">
+      <c r="B148" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="36"/>
-      <c r="L148" s="10"/>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="37"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="37"/>
+      <c r="L148" s="37"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
@@ -8220,88 +8336,88 @@
       <c r="AC148" s="10"/>
       <c r="AD148" s="10"/>
       <c r="AE148" s="10"/>
-      <c r="AG148" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="AF148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="31"/>
+      <c r="C149" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C149" s="39" t="s">
+      <c r="D149" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
-      <c r="J149" s="37"/>
-      <c r="K149" s="37"/>
-      <c r="L149" s="37"/>
-      <c r="M149" s="37"/>
-      <c r="N149" s="37"/>
-      <c r="O149" s="37"/>
-      <c r="P149" s="37"/>
-      <c r="Q149" s="37"/>
-      <c r="R149" s="37"/>
-      <c r="S149" s="37"/>
-      <c r="T149" s="37"/>
-      <c r="U149" s="37"/>
-      <c r="V149" s="37"/>
-      <c r="W149" s="37"/>
-      <c r="X149" s="37"/>
-      <c r="Y149" s="37"/>
-      <c r="Z149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="38"/>
+      <c r="L149" s="38"/>
+      <c r="M149" s="38"/>
+      <c r="N149" s="38"/>
+      <c r="O149" s="38"/>
+      <c r="P149" s="38"/>
+      <c r="Q149" s="38"/>
+      <c r="R149" s="38"/>
+      <c r="S149" s="38"/>
+      <c r="T149" s="38"/>
+      <c r="U149" s="38"/>
+      <c r="V149" s="38"/>
+      <c r="W149" s="38"/>
+      <c r="X149" s="38"/>
+      <c r="Y149" s="38"/>
+      <c r="Z149" s="38"/>
       <c r="AA149" s="12"/>
       <c r="AB149" s="12"/>
       <c r="AC149" s="12"/>
       <c r="AD149" s="12"/>
       <c r="AE149" s="12"/>
+      <c r="AF149" s="12"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="31"/>
+      <c r="C150" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C150" s="42"/>
-      <c r="D150" s="12"/>
+      <c r="D150" s="43"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
-      <c r="J150" s="37"/>
-      <c r="K150" s="37"/>
-      <c r="L150" s="37"/>
-      <c r="M150" s="37"/>
-      <c r="N150" s="37"/>
-      <c r="O150" s="37"/>
-      <c r="P150" s="37"/>
-      <c r="Q150" s="37"/>
-      <c r="R150" s="37"/>
-      <c r="S150" s="37"/>
-      <c r="T150" s="37"/>
-      <c r="U150" s="37"/>
-      <c r="V150" s="37"/>
-      <c r="W150" s="37"/>
-      <c r="X150" s="37"/>
-      <c r="Y150" s="37"/>
-      <c r="Z150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="38"/>
+      <c r="L150" s="38"/>
+      <c r="M150" s="38"/>
+      <c r="N150" s="38"/>
+      <c r="O150" s="38"/>
+      <c r="P150" s="38"/>
+      <c r="Q150" s="38"/>
+      <c r="R150" s="38"/>
+      <c r="S150" s="38"/>
+      <c r="T150" s="38"/>
+      <c r="U150" s="38"/>
+      <c r="V150" s="38"/>
+      <c r="W150" s="38"/>
+      <c r="X150" s="38"/>
+      <c r="Y150" s="38"/>
+      <c r="Z150" s="38"/>
       <c r="AA150" s="12"/>
       <c r="AB150" s="12"/>
       <c r="AC150" s="12"/>
       <c r="AD150" s="12"/>
       <c r="AE150" s="12"/>
+      <c r="AF150" s="12"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
-      <c r="B151" s="19" t="s">
+      <c r="B151" s="31"/>
+      <c r="C151" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C151" s="42"/>
-      <c r="D151" s="12"/>
+      <c r="D151" s="43"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
@@ -8323,32 +8439,35 @@
       <c r="W151" s="12"/>
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
-      <c r="Z151" s="38"/>
-      <c r="AA151" s="38"/>
-      <c r="AB151" s="38"/>
-      <c r="AC151" s="38"/>
-      <c r="AD151" s="38"/>
-      <c r="AE151" s="38"/>
+      <c r="Z151" s="12"/>
+      <c r="AA151" s="39"/>
+      <c r="AB151" s="39"/>
+      <c r="AC151" s="39"/>
+      <c r="AD151" s="39"/>
+      <c r="AE151" s="39"/>
+      <c r="AF151" s="39"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B152" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C152" s="39" t="s">
+      <c r="B152" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
-      <c r="L152" s="10"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="37"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="37"/>
+      <c r="K152" s="37"/>
+      <c r="L152" s="37"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
@@ -8368,88 +8487,88 @@
       <c r="AC152" s="10"/>
       <c r="AD152" s="10"/>
       <c r="AE152" s="10"/>
-      <c r="AG152" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="AF152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="31"/>
+      <c r="C153" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C153" s="39" t="s">
+      <c r="D153" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
-      <c r="J153" s="37"/>
-      <c r="K153" s="37"/>
-      <c r="L153" s="37"/>
-      <c r="M153" s="37"/>
-      <c r="N153" s="37"/>
-      <c r="O153" s="37"/>
-      <c r="P153" s="37"/>
-      <c r="Q153" s="37"/>
-      <c r="R153" s="37"/>
-      <c r="S153" s="37"/>
-      <c r="T153" s="37"/>
-      <c r="U153" s="37"/>
-      <c r="V153" s="37"/>
-      <c r="W153" s="37"/>
-      <c r="X153" s="37"/>
-      <c r="Y153" s="37"/>
-      <c r="Z153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="38"/>
+      <c r="L153" s="38"/>
+      <c r="M153" s="38"/>
+      <c r="N153" s="38"/>
+      <c r="O153" s="38"/>
+      <c r="P153" s="38"/>
+      <c r="Q153" s="38"/>
+      <c r="R153" s="38"/>
+      <c r="S153" s="38"/>
+      <c r="T153" s="38"/>
+      <c r="U153" s="38"/>
+      <c r="V153" s="38"/>
+      <c r="W153" s="38"/>
+      <c r="X153" s="38"/>
+      <c r="Y153" s="38"/>
+      <c r="Z153" s="38"/>
       <c r="AA153" s="12"/>
       <c r="AB153" s="12"/>
       <c r="AC153" s="12"/>
       <c r="AD153" s="12"/>
       <c r="AE153" s="12"/>
+      <c r="AF153" s="12"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="31"/>
+      <c r="C154" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C154" s="42"/>
-      <c r="D154" s="12"/>
+      <c r="D154" s="43"/>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="37"/>
-      <c r="L154" s="37"/>
-      <c r="M154" s="37"/>
-      <c r="N154" s="37"/>
-      <c r="O154" s="37"/>
-      <c r="P154" s="37"/>
-      <c r="Q154" s="37"/>
-      <c r="R154" s="37"/>
-      <c r="S154" s="37"/>
-      <c r="T154" s="37"/>
-      <c r="U154" s="37"/>
-      <c r="V154" s="37"/>
-      <c r="W154" s="37"/>
-      <c r="X154" s="37"/>
-      <c r="Y154" s="37"/>
-      <c r="Z154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="38"/>
+      <c r="L154" s="38"/>
+      <c r="M154" s="38"/>
+      <c r="N154" s="38"/>
+      <c r="O154" s="38"/>
+      <c r="P154" s="38"/>
+      <c r="Q154" s="38"/>
+      <c r="R154" s="38"/>
+      <c r="S154" s="38"/>
+      <c r="T154" s="38"/>
+      <c r="U154" s="38"/>
+      <c r="V154" s="38"/>
+      <c r="W154" s="38"/>
+      <c r="X154" s="38"/>
+      <c r="Y154" s="38"/>
+      <c r="Z154" s="38"/>
       <c r="AA154" s="12"/>
       <c r="AB154" s="12"/>
       <c r="AC154" s="12"/>
       <c r="AD154" s="12"/>
       <c r="AE154" s="12"/>
+      <c r="AF154" s="12"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
-      <c r="B155" s="19" t="s">
+      <c r="B155" s="31"/>
+      <c r="C155" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C155" s="42"/>
-      <c r="D155" s="12"/>
+      <c r="D155" s="43"/>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
@@ -8471,32 +8590,35 @@
       <c r="W155" s="12"/>
       <c r="X155" s="12"/>
       <c r="Y155" s="12"/>
-      <c r="Z155" s="38"/>
-      <c r="AA155" s="38"/>
-      <c r="AB155" s="38"/>
-      <c r="AC155" s="38"/>
-      <c r="AD155" s="38"/>
-      <c r="AE155" s="38"/>
+      <c r="Z155" s="12"/>
+      <c r="AA155" s="39"/>
+      <c r="AB155" s="39"/>
+      <c r="AC155" s="39"/>
+      <c r="AD155" s="39"/>
+      <c r="AE155" s="39"/>
+      <c r="AF155" s="39"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B156" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C156" s="39" t="s">
+      <c r="B156" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
-      <c r="L156" s="10"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="37"/>
+      <c r="I156" s="37"/>
+      <c r="J156" s="37"/>
+      <c r="K156" s="37"/>
+      <c r="L156" s="37"/>
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
@@ -8516,88 +8638,88 @@
       <c r="AC156" s="10"/>
       <c r="AD156" s="10"/>
       <c r="AE156" s="10"/>
-      <c r="AG156" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="AF156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="31"/>
+      <c r="C157" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="39" t="s">
+      <c r="D157" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D157" s="12"/>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
-      <c r="J157" s="37"/>
-      <c r="K157" s="37"/>
-      <c r="L157" s="37"/>
-      <c r="M157" s="37"/>
-      <c r="N157" s="37"/>
-      <c r="O157" s="37"/>
-      <c r="P157" s="37"/>
-      <c r="Q157" s="37"/>
-      <c r="R157" s="37"/>
-      <c r="S157" s="37"/>
-      <c r="T157" s="37"/>
-      <c r="U157" s="37"/>
-      <c r="V157" s="37"/>
-      <c r="W157" s="37"/>
-      <c r="X157" s="37"/>
-      <c r="Y157" s="37"/>
-      <c r="Z157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="38"/>
+      <c r="L157" s="38"/>
+      <c r="M157" s="38"/>
+      <c r="N157" s="38"/>
+      <c r="O157" s="38"/>
+      <c r="P157" s="38"/>
+      <c r="Q157" s="38"/>
+      <c r="R157" s="38"/>
+      <c r="S157" s="38"/>
+      <c r="T157" s="38"/>
+      <c r="U157" s="38"/>
+      <c r="V157" s="38"/>
+      <c r="W157" s="38"/>
+      <c r="X157" s="38"/>
+      <c r="Y157" s="38"/>
+      <c r="Z157" s="38"/>
       <c r="AA157" s="12"/>
       <c r="AB157" s="12"/>
       <c r="AC157" s="12"/>
       <c r="AD157" s="12"/>
       <c r="AE157" s="12"/>
+      <c r="AF157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="31"/>
+      <c r="C158" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C158" s="42"/>
-      <c r="D158" s="12"/>
+      <c r="D158" s="43"/>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="37"/>
-      <c r="L158" s="37"/>
-      <c r="M158" s="37"/>
-      <c r="N158" s="37"/>
-      <c r="O158" s="37"/>
-      <c r="P158" s="37"/>
-      <c r="Q158" s="37"/>
-      <c r="R158" s="37"/>
-      <c r="S158" s="37"/>
-      <c r="T158" s="37"/>
-      <c r="U158" s="37"/>
-      <c r="V158" s="37"/>
-      <c r="W158" s="37"/>
-      <c r="X158" s="37"/>
-      <c r="Y158" s="37"/>
-      <c r="Z158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="38"/>
+      <c r="L158" s="38"/>
+      <c r="M158" s="38"/>
+      <c r="N158" s="38"/>
+      <c r="O158" s="38"/>
+      <c r="P158" s="38"/>
+      <c r="Q158" s="38"/>
+      <c r="R158" s="38"/>
+      <c r="S158" s="38"/>
+      <c r="T158" s="38"/>
+      <c r="U158" s="38"/>
+      <c r="V158" s="38"/>
+      <c r="W158" s="38"/>
+      <c r="X158" s="38"/>
+      <c r="Y158" s="38"/>
+      <c r="Z158" s="38"/>
       <c r="AA158" s="12"/>
       <c r="AB158" s="12"/>
       <c r="AC158" s="12"/>
       <c r="AD158" s="12"/>
       <c r="AE158" s="12"/>
+      <c r="AF158" s="12"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="31"/>
+      <c r="C159" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C159" s="42"/>
-      <c r="D159" s="12"/>
+      <c r="D159" s="43"/>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
@@ -8619,32 +8741,35 @@
       <c r="W159" s="12"/>
       <c r="X159" s="12"/>
       <c r="Y159" s="12"/>
-      <c r="Z159" s="38"/>
-      <c r="AA159" s="38"/>
-      <c r="AB159" s="38"/>
-      <c r="AC159" s="38"/>
-      <c r="AD159" s="38"/>
-      <c r="AE159" s="38"/>
+      <c r="Z159" s="12"/>
+      <c r="AA159" s="39"/>
+      <c r="AB159" s="39"/>
+      <c r="AC159" s="39"/>
+      <c r="AD159" s="39"/>
+      <c r="AE159" s="39"/>
+      <c r="AF159" s="39"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B160" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C160" s="39" t="s">
+      <c r="B160" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D160" s="36"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
-      <c r="L160" s="10"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="37"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="37"/>
+      <c r="K160" s="37"/>
+      <c r="L160" s="37"/>
       <c r="M160" s="10"/>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
@@ -8664,88 +8789,88 @@
       <c r="AC160" s="10"/>
       <c r="AD160" s="10"/>
       <c r="AE160" s="10"/>
-      <c r="AG160" s="0" t="s">
-        <v>104</v>
-      </c>
+      <c r="AF160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="31"/>
+      <c r="C161" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C161" s="39" t="s">
+      <c r="D161" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
-      <c r="J161" s="37"/>
-      <c r="K161" s="37"/>
-      <c r="L161" s="37"/>
-      <c r="M161" s="37"/>
-      <c r="N161" s="37"/>
-      <c r="O161" s="37"/>
-      <c r="P161" s="37"/>
-      <c r="Q161" s="37"/>
-      <c r="R161" s="37"/>
-      <c r="S161" s="37"/>
-      <c r="T161" s="37"/>
-      <c r="U161" s="37"/>
-      <c r="V161" s="37"/>
-      <c r="W161" s="37"/>
-      <c r="X161" s="37"/>
-      <c r="Y161" s="37"/>
-      <c r="Z161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="38"/>
+      <c r="L161" s="38"/>
+      <c r="M161" s="38"/>
+      <c r="N161" s="38"/>
+      <c r="O161" s="38"/>
+      <c r="P161" s="38"/>
+      <c r="Q161" s="38"/>
+      <c r="R161" s="38"/>
+      <c r="S161" s="38"/>
+      <c r="T161" s="38"/>
+      <c r="U161" s="38"/>
+      <c r="V161" s="38"/>
+      <c r="W161" s="38"/>
+      <c r="X161" s="38"/>
+      <c r="Y161" s="38"/>
+      <c r="Z161" s="38"/>
       <c r="AA161" s="12"/>
       <c r="AB161" s="12"/>
       <c r="AC161" s="12"/>
       <c r="AD161" s="12"/>
       <c r="AE161" s="12"/>
+      <c r="AF161" s="12"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="31"/>
+      <c r="C162" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C162" s="42"/>
-      <c r="D162" s="12"/>
+      <c r="D162" s="43"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
-      <c r="J162" s="37"/>
-      <c r="K162" s="37"/>
-      <c r="L162" s="37"/>
-      <c r="M162" s="37"/>
-      <c r="N162" s="37"/>
-      <c r="O162" s="37"/>
-      <c r="P162" s="37"/>
-      <c r="Q162" s="37"/>
-      <c r="R162" s="37"/>
-      <c r="S162" s="37"/>
-      <c r="T162" s="37"/>
-      <c r="U162" s="37"/>
-      <c r="V162" s="37"/>
-      <c r="W162" s="37"/>
-      <c r="X162" s="37"/>
-      <c r="Y162" s="37"/>
-      <c r="Z162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="38"/>
+      <c r="L162" s="38"/>
+      <c r="M162" s="38"/>
+      <c r="N162" s="38"/>
+      <c r="O162" s="38"/>
+      <c r="P162" s="38"/>
+      <c r="Q162" s="38"/>
+      <c r="R162" s="38"/>
+      <c r="S162" s="38"/>
+      <c r="T162" s="38"/>
+      <c r="U162" s="38"/>
+      <c r="V162" s="38"/>
+      <c r="W162" s="38"/>
+      <c r="X162" s="38"/>
+      <c r="Y162" s="38"/>
+      <c r="Z162" s="38"/>
       <c r="AA162" s="12"/>
       <c r="AB162" s="12"/>
       <c r="AC162" s="12"/>
       <c r="AD162" s="12"/>
       <c r="AE162" s="12"/>
+      <c r="AF162" s="12"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="31"/>
+      <c r="C163" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C163" s="42"/>
-      <c r="D163" s="12"/>
+      <c r="D163" s="43"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
@@ -8767,380 +8892,381 @@
       <c r="W163" s="12"/>
       <c r="X163" s="12"/>
       <c r="Y163" s="12"/>
-      <c r="Z163" s="38"/>
-      <c r="AA163" s="38"/>
-      <c r="AB163" s="38"/>
-      <c r="AC163" s="38"/>
-      <c r="AD163" s="38"/>
-      <c r="AE163" s="38"/>
+      <c r="Z163" s="12"/>
+      <c r="AA163" s="39"/>
+      <c r="AB163" s="39"/>
+      <c r="AC163" s="39"/>
+      <c r="AD163" s="39"/>
+      <c r="AE163" s="39"/>
+      <c r="AF163" s="39"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="43"/>
-      <c r="B164" s="44"/>
+      <c r="A164" s="44"/>
+      <c r="C164" s="45"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="45"/>
-      <c r="B165" s="44"/>
+      <c r="A165" s="46"/>
+      <c r="C165" s="45"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="45"/>
-      <c r="B166" s="44"/>
+      <c r="A166" s="46"/>
+      <c r="C166" s="45"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="43"/>
-      <c r="B167" s="44"/>
+      <c r="A167" s="44"/>
+      <c r="C167" s="45"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="45"/>
-      <c r="B168" s="44"/>
+      <c r="A168" s="46"/>
+      <c r="C168" s="45"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="45"/>
-      <c r="B169" s="44"/>
+      <c r="A169" s="46"/>
+      <c r="C169" s="45"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="43"/>
-      <c r="B170" s="44"/>
+      <c r="A170" s="44"/>
+      <c r="C170" s="45"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="45"/>
-      <c r="B171" s="44"/>
+      <c r="A171" s="46"/>
+      <c r="C171" s="45"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="45"/>
-      <c r="B172" s="44"/>
+      <c r="A172" s="46"/>
+      <c r="C172" s="45"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="43"/>
-      <c r="B173" s="44"/>
+      <c r="A173" s="44"/>
+      <c r="C173" s="45"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="45"/>
-      <c r="B174" s="44"/>
+      <c r="A174" s="46"/>
+      <c r="C174" s="45"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="45"/>
-      <c r="B175" s="44"/>
+      <c r="A175" s="46"/>
+      <c r="C175" s="45"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="43"/>
-      <c r="B176" s="44"/>
+      <c r="A176" s="44"/>
+      <c r="C176" s="45"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="45"/>
-      <c r="B177" s="44"/>
+      <c r="A177" s="46"/>
+      <c r="C177" s="45"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="45"/>
-      <c r="B178" s="44"/>
+      <c r="A178" s="46"/>
+      <c r="C178" s="45"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="43"/>
-      <c r="B179" s="44"/>
+      <c r="A179" s="44"/>
+      <c r="C179" s="45"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="45"/>
-      <c r="B180" s="44"/>
+      <c r="A180" s="46"/>
+      <c r="C180" s="45"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="45"/>
-      <c r="B181" s="44"/>
+      <c r="A181" s="46"/>
+      <c r="C181" s="45"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="43"/>
-      <c r="B182" s="44"/>
+      <c r="A182" s="44"/>
+      <c r="C182" s="45"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="45"/>
-      <c r="B183" s="44"/>
+      <c r="A183" s="46"/>
+      <c r="C183" s="45"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="45"/>
-      <c r="B184" s="44"/>
+      <c r="A184" s="46"/>
+      <c r="C184" s="45"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="43"/>
-      <c r="B185" s="44"/>
+      <c r="A185" s="44"/>
+      <c r="C185" s="45"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="45"/>
-      <c r="B186" s="44"/>
+      <c r="A186" s="46"/>
+      <c r="C186" s="45"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="45"/>
-      <c r="B187" s="44"/>
+      <c r="A187" s="46"/>
+      <c r="C187" s="45"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="43"/>
-      <c r="B188" s="44"/>
+      <c r="A188" s="44"/>
+      <c r="C188" s="45"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="45"/>
-      <c r="B189" s="44"/>
+      <c r="A189" s="46"/>
+      <c r="C189" s="45"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="45"/>
-      <c r="B190" s="44"/>
+      <c r="A190" s="46"/>
+      <c r="C190" s="45"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="43"/>
-      <c r="B191" s="44"/>
+      <c r="A191" s="44"/>
+      <c r="C191" s="45"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="45"/>
-      <c r="B192" s="44"/>
+      <c r="A192" s="46"/>
+      <c r="C192" s="45"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="45"/>
-      <c r="B193" s="44"/>
+      <c r="A193" s="46"/>
+      <c r="C193" s="45"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="43"/>
-      <c r="B194" s="44"/>
+      <c r="A194" s="44"/>
+      <c r="C194" s="45"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="45"/>
-      <c r="B195" s="44"/>
+      <c r="A195" s="46"/>
+      <c r="C195" s="45"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="45"/>
-      <c r="B196" s="44"/>
+      <c r="A196" s="46"/>
+      <c r="C196" s="45"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="43"/>
-      <c r="B197" s="44"/>
+      <c r="A197" s="44"/>
+      <c r="C197" s="45"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="45"/>
-      <c r="B198" s="44"/>
+      <c r="A198" s="46"/>
+      <c r="C198" s="45"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="45"/>
-      <c r="B199" s="44"/>
+      <c r="A199" s="46"/>
+      <c r="C199" s="45"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="43"/>
-      <c r="B200" s="44"/>
+      <c r="A200" s="44"/>
+      <c r="C200" s="45"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="45"/>
-      <c r="B201" s="44"/>
+      <c r="A201" s="46"/>
+      <c r="C201" s="45"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="45"/>
-      <c r="B202" s="44"/>
+      <c r="A202" s="46"/>
+      <c r="C202" s="45"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="43"/>
-      <c r="B203" s="44"/>
+      <c r="A203" s="44"/>
+      <c r="C203" s="45"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="45"/>
-      <c r="B204" s="44"/>
+      <c r="A204" s="46"/>
+      <c r="C204" s="45"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="45"/>
-      <c r="B205" s="44"/>
+      <c r="A205" s="46"/>
+      <c r="C205" s="45"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="43"/>
-      <c r="B206" s="44"/>
+      <c r="A206" s="44"/>
+      <c r="C206" s="45"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="45"/>
-      <c r="B207" s="44"/>
+      <c r="A207" s="46"/>
+      <c r="C207" s="45"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="45"/>
-      <c r="B208" s="44"/>
+      <c r="A208" s="46"/>
+      <c r="C208" s="45"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="43"/>
-      <c r="B209" s="44"/>
+      <c r="A209" s="44"/>
+      <c r="C209" s="45"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="45"/>
-      <c r="B210" s="44"/>
+      <c r="A210" s="46"/>
+      <c r="C210" s="45"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="45"/>
-      <c r="B211" s="44"/>
+      <c r="A211" s="46"/>
+      <c r="C211" s="45"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="43"/>
-      <c r="B212" s="44"/>
+      <c r="A212" s="44"/>
+      <c r="C212" s="45"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="45"/>
-      <c r="B213" s="44"/>
+      <c r="A213" s="46"/>
+      <c r="C213" s="45"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="45"/>
-      <c r="B214" s="44"/>
+      <c r="A214" s="46"/>
+      <c r="C214" s="45"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="43"/>
-      <c r="B215" s="44"/>
+      <c r="A215" s="44"/>
+      <c r="C215" s="45"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="45"/>
-      <c r="B216" s="44"/>
+      <c r="A216" s="46"/>
+      <c r="C216" s="45"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="45"/>
-      <c r="B217" s="44"/>
+      <c r="A217" s="46"/>
+      <c r="C217" s="45"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="43"/>
-      <c r="B218" s="44"/>
+      <c r="A218" s="44"/>
+      <c r="C218" s="45"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="45"/>
-      <c r="B219" s="44"/>
+      <c r="A219" s="46"/>
+      <c r="C219" s="45"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="45"/>
-      <c r="B220" s="44"/>
+      <c r="A220" s="46"/>
+      <c r="C220" s="45"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="43"/>
-      <c r="B221" s="44"/>
+      <c r="A221" s="44"/>
+      <c r="C221" s="45"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="45"/>
-      <c r="B222" s="44"/>
+      <c r="A222" s="46"/>
+      <c r="C222" s="45"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="45"/>
-      <c r="B223" s="44"/>
+      <c r="A223" s="46"/>
+      <c r="C223" s="45"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="43"/>
-      <c r="B224" s="44"/>
+      <c r="A224" s="44"/>
+      <c r="C224" s="45"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="45"/>
-      <c r="B225" s="44"/>
+      <c r="A225" s="46"/>
+      <c r="C225" s="45"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="45"/>
-      <c r="B226" s="44"/>
+      <c r="A226" s="46"/>
+      <c r="C226" s="45"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="43"/>
-      <c r="B227" s="44"/>
+      <c r="A227" s="44"/>
+      <c r="C227" s="45"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="45"/>
-      <c r="B228" s="44"/>
+      <c r="A228" s="46"/>
+      <c r="C228" s="45"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="45"/>
-      <c r="B229" s="44"/>
+      <c r="A229" s="46"/>
+      <c r="C229" s="45"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="43"/>
-      <c r="B230" s="44"/>
+      <c r="A230" s="44"/>
+      <c r="C230" s="45"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="45"/>
-      <c r="B231" s="44"/>
+      <c r="A231" s="46"/>
+      <c r="C231" s="45"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="45"/>
-      <c r="B232" s="44"/>
+      <c r="A232" s="46"/>
+      <c r="C232" s="45"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="43"/>
-      <c r="B233" s="44"/>
+      <c r="A233" s="44"/>
+      <c r="C233" s="45"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="45"/>
-      <c r="B234" s="44"/>
+      <c r="A234" s="46"/>
+      <c r="C234" s="45"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="45"/>
-      <c r="B235" s="44"/>
+      <c r="A235" s="46"/>
+      <c r="C235" s="45"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="43"/>
-      <c r="B236" s="44"/>
+      <c r="A236" s="44"/>
+      <c r="C236" s="45"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="45"/>
-      <c r="B237" s="44"/>
+      <c r="A237" s="46"/>
+      <c r="C237" s="45"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="45"/>
-      <c r="B238" s="44"/>
+      <c r="A238" s="46"/>
+      <c r="C238" s="45"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="43"/>
-      <c r="B239" s="44"/>
+      <c r="A239" s="44"/>
+      <c r="C239" s="45"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="45"/>
-      <c r="B240" s="44"/>
+      <c r="A240" s="46"/>
+      <c r="C240" s="45"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="45"/>
-      <c r="B241" s="44"/>
+      <c r="A241" s="46"/>
+      <c r="C241" s="45"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="43"/>
-      <c r="B242" s="44"/>
+      <c r="A242" s="44"/>
+      <c r="C242" s="45"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="45"/>
-      <c r="B243" s="44"/>
+      <c r="A243" s="46"/>
+      <c r="C243" s="45"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="45"/>
-      <c r="B244" s="44"/>
+      <c r="A244" s="46"/>
+      <c r="C244" s="45"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="43"/>
-      <c r="B245" s="44"/>
+      <c r="A245" s="44"/>
+      <c r="C245" s="45"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="45"/>
-      <c r="B246" s="44"/>
+      <c r="A246" s="46"/>
+      <c r="C246" s="45"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="45"/>
-      <c r="B247" s="44"/>
+      <c r="A247" s="46"/>
+      <c r="C247" s="45"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="43"/>
-      <c r="B248" s="44"/>
+      <c r="A248" s="44"/>
+      <c r="C248" s="45"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="45"/>
-      <c r="B249" s="44"/>
+      <c r="A249" s="46"/>
+      <c r="C249" s="45"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="45"/>
-      <c r="B250" s="44"/>
+      <c r="A250" s="46"/>
+      <c r="C250" s="45"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="43"/>
-      <c r="B251" s="44"/>
+      <c r="A251" s="44"/>
+      <c r="C251" s="45"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="45"/>
-      <c r="B252" s="44"/>
+      <c r="A252" s="46"/>
+      <c r="C252" s="45"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="45"/>
-      <c r="B253" s="44"/>
+      <c r="A253" s="46"/>
+      <c r="C253" s="45"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="43"/>
-      <c r="B254" s="44"/>
+      <c r="A254" s="44"/>
+      <c r="C254" s="45"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="45"/>
-      <c r="B255" s="44"/>
+      <c r="A255" s="46"/>
+      <c r="C255" s="45"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9160,14 +9286,14 @@
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/3D制作物管理表.xlsx
+++ b/3D制作物管理表.xlsx
@@ -245,10 +245,10 @@
     <t xml:space="preserve">C01</t>
   </si>
   <si>
+    <t xml:space="preserve">レイアウト</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scene_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">レイアウト</t>
   </si>
   <si>
     <t xml:space="preserve">モーション</t>
@@ -723,7 +723,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -846,10 +846,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -999,11 +995,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="4" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="32" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="32" style="0" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="12.86"/>
   </cols>
   <sheetData>
@@ -2699,23 +2695,23 @@
   <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="5" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="4" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="26" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="27" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="37" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="37" style="0" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="12.86"/>
   </cols>
   <sheetData>
@@ -2753,7 +2749,6 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
       <c r="AH1" s="28" t="s">
         <v>38</v>
       </c>
@@ -2766,55 +2761,55 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="B2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="AG2" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="AH2" s="28" t="s">
         <v>42</v>
       </c>
@@ -2832,56 +2827,53 @@
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -2901,88 +2893,88 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
+      <c r="AG4" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="31"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -3004,35 +2996,32 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -3052,88 +3041,88 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
+      <c r="AG8" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="31"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3155,35 +3144,32 @@
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -3203,88 +3189,88 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
+      <c r="AG12" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="31"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
       <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12"/>
       <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3306,35 +3292,32 @@
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>55</v>
+      <c r="B16" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -3354,88 +3337,88 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
+      <c r="AG16" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="31"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3457,35 +3440,32 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="B20" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -3505,88 +3485,88 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
+      <c r="AG20" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="31"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3608,35 +3588,32 @@
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
     </row>
     <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="40" t="s">
+      <c r="B24" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -3656,88 +3633,88 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
+      <c r="AG24" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="31"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
       <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3759,35 +3736,32 @@
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="40" t="s">
+      <c r="B28" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -3807,88 +3781,88 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
+      <c r="AG28" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="31"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="C29" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12"/>
       <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="33"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="33"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -3910,35 +3884,32 @@
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
     </row>
     <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="40" t="s">
+      <c r="B32" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -3958,88 +3929,88 @@
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
+      <c r="AG32" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="31"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="12"/>
       <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="12"/>
       <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="33"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -4061,35 +4032,32 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
     </row>
     <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="40" t="s">
+      <c r="B36" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -4109,88 +4077,88 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
+      <c r="AG36" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="31"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="C37" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -4212,35 +4180,32 @@
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
     </row>
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="40" t="s">
+      <c r="B40" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -4260,88 +4225,88 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
+      <c r="AG40" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="31"/>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="C41" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="12"/>
       <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="42"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12"/>
       <c r="AE42" s="12"/>
-      <c r="AF42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="42"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -4363,35 +4328,32 @@
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="39"/>
-      <c r="AB43" s="39"/>
-      <c r="AC43" s="39"/>
-      <c r="AD43" s="39"/>
-      <c r="AE43" s="39"/>
-      <c r="AF43" s="39"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
     </row>
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="40" t="s">
+      <c r="B44" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -4411,88 +4373,88 @@
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
+      <c r="AG44" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="31"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="C45" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
       <c r="AD45" s="12"/>
       <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="42"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
       <c r="AC46" s="12"/>
       <c r="AD46" s="12"/>
       <c r="AE46" s="12"/>
-      <c r="AF46" s="12"/>
     </row>
     <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="33"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -4514,35 +4476,32 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
     </row>
     <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>67</v>
+      <c r="B48" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -4562,88 +4521,88 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
+      <c r="AG48" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="31"/>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
-      <c r="AF49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="33"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
       <c r="AC50" s="12"/>
       <c r="AD50" s="12"/>
       <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
     </row>
     <row r="51" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="42"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
@@ -4665,35 +4624,32 @@
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39"/>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="38"/>
+      <c r="AE51" s="38"/>
     </row>
     <row r="52" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="40" t="s">
+      <c r="B52" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -4713,88 +4669,88 @@
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
-      <c r="AF52" s="10"/>
+      <c r="AG52" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="31"/>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="C53" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="41"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
       <c r="AC54" s="12"/>
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
     </row>
     <row r="55" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="33"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -4816,35 +4772,32 @@
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
+      <c r="AB55" s="38"/>
+      <c r="AC55" s="38"/>
+      <c r="AD55" s="38"/>
+      <c r="AE55" s="38"/>
     </row>
     <row r="56" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="40" t="s">
+      <c r="B56" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -4864,88 +4817,88 @@
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
+      <c r="AG56" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="31"/>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="C57" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
       <c r="AC57" s="12"/>
       <c r="AD57" s="12"/>
       <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="42"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
       <c r="AC58" s="12"/>
       <c r="AD58" s="12"/>
       <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
     </row>
     <row r="59" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="33"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -4967,35 +4920,32 @@
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38"/>
+      <c r="AE59" s="38"/>
     </row>
     <row r="60" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>72</v>
+      <c r="B60" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -5015,88 +4965,88 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
       <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
+      <c r="AG60" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="31"/>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="C61" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
       <c r="AB61" s="12"/>
       <c r="AC61" s="12"/>
       <c r="AD61" s="12"/>
       <c r="AE61" s="12"/>
-      <c r="AF61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="33"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="12"/>
       <c r="AA62" s="12"/>
       <c r="AB62" s="12"/>
       <c r="AC62" s="12"/>
       <c r="AD62" s="12"/>
       <c r="AE62" s="12"/>
-      <c r="AF62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="42"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -5118,35 +5068,32 @@
       <c r="W63" s="12"/>
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="38"/>
+      <c r="AE63" s="38"/>
     </row>
     <row r="64" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>72</v>
+      <c r="B64" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -5166,88 +5113,88 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
       <c r="AE64" s="10"/>
-      <c r="AF64" s="10"/>
+      <c r="AG64" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="31"/>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="C65" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
       <c r="AB65" s="12"/>
       <c r="AC65" s="12"/>
       <c r="AD65" s="12"/>
       <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="42"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="12"/>
       <c r="AC66" s="12"/>
       <c r="AD66" s="12"/>
       <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
     </row>
     <row r="67" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="42"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -5269,35 +5216,32 @@
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
-      <c r="AF67" s="39"/>
+      <c r="Z67" s="38"/>
+      <c r="AA67" s="38"/>
+      <c r="AB67" s="38"/>
+      <c r="AC67" s="38"/>
+      <c r="AD67" s="38"/>
+      <c r="AE67" s="38"/>
     </row>
     <row r="68" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="31" t="s">
-        <v>75</v>
+      <c r="B68" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -5317,88 +5261,88 @@
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
+      <c r="AG68" s="0" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="31"/>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="C69" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="12"/>
       <c r="AC69" s="12"/>
       <c r="AD69" s="12"/>
       <c r="AE69" s="12"/>
-      <c r="AF69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="42"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
       <c r="AB70" s="12"/>
       <c r="AC70" s="12"/>
       <c r="AD70" s="12"/>
       <c r="AE70" s="12"/>
-      <c r="AF70" s="12"/>
     </row>
     <row r="71" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="33"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -5420,35 +5364,32 @@
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="39"/>
-      <c r="AB71" s="39"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="39"/>
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="39"/>
+      <c r="Z71" s="38"/>
+      <c r="AA71" s="38"/>
+      <c r="AB71" s="38"/>
+      <c r="AC71" s="38"/>
+      <c r="AD71" s="38"/>
+      <c r="AE71" s="38"/>
     </row>
     <row r="72" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>77</v>
+      <c r="B72" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -5468,88 +5409,88 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
+      <c r="AG72" s="0" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="31"/>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="38"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="12"/>
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
       <c r="AC73" s="12"/>
       <c r="AD73" s="12"/>
       <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="5" t="s">
+      <c r="B74" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="33"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="12"/>
       <c r="AA74" s="12"/>
       <c r="AB74" s="12"/>
       <c r="AC74" s="12"/>
       <c r="AD74" s="12"/>
       <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
     </row>
     <row r="75" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="42"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -5571,35 +5512,32 @@
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="39"/>
-      <c r="AB75" s="39"/>
-      <c r="AC75" s="39"/>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="38"/>
     </row>
     <row r="76" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="31" t="s">
-        <v>77</v>
+      <c r="B76" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -5619,88 +5557,88 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
-      <c r="AF76" s="10"/>
+      <c r="AG76" s="0" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="31"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="37"/>
+      <c r="Z77" s="12"/>
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
       <c r="AC77" s="12"/>
       <c r="AD77" s="12"/>
       <c r="AE77" s="12"/>
-      <c r="AF77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="42"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="37"/>
+      <c r="Z78" s="12"/>
       <c r="AA78" s="12"/>
       <c r="AB78" s="12"/>
       <c r="AC78" s="12"/>
       <c r="AD78" s="12"/>
       <c r="AE78" s="12"/>
-      <c r="AF78" s="12"/>
     </row>
     <row r="79" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="42"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
@@ -5722,35 +5660,32 @@
       <c r="W79" s="12"/>
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
-      <c r="Z79" s="12"/>
-      <c r="AA79" s="39"/>
-      <c r="AB79" s="39"/>
-      <c r="AC79" s="39"/>
-      <c r="AD79" s="39"/>
-      <c r="AE79" s="39"/>
-      <c r="AF79" s="39"/>
+      <c r="Z79" s="38"/>
+      <c r="AA79" s="38"/>
+      <c r="AB79" s="38"/>
+      <c r="AC79" s="38"/>
+      <c r="AD79" s="38"/>
+      <c r="AE79" s="38"/>
     </row>
     <row r="80" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="31" t="s">
-        <v>77</v>
+      <c r="B80" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="10"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -5770,88 +5705,88 @@
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
       <c r="AE80" s="10"/>
-      <c r="AF80" s="10"/>
+      <c r="AG80" s="0" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="31"/>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="C81" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="38"/>
-      <c r="X81" s="38"/>
-      <c r="Y81" s="38"/>
-      <c r="Z81" s="38"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
+      <c r="Z81" s="12"/>
       <c r="AA81" s="12"/>
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
       <c r="AD81" s="12"/>
       <c r="AE81" s="12"/>
-      <c r="AF81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
-      <c r="X82" s="38"/>
-      <c r="Y82" s="38"/>
-      <c r="Z82" s="38"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="37"/>
+      <c r="Z82" s="12"/>
       <c r="AA82" s="12"/>
       <c r="AB82" s="12"/>
       <c r="AC82" s="12"/>
       <c r="AD82" s="12"/>
       <c r="AE82" s="12"/>
-      <c r="AF82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="19" t="s">
+      <c r="B83" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="33"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -5873,35 +5808,32 @@
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
       <c r="Y83" s="12"/>
-      <c r="Z83" s="12"/>
-      <c r="AA83" s="39"/>
-      <c r="AB83" s="39"/>
-      <c r="AC83" s="39"/>
-      <c r="AD83" s="39"/>
-      <c r="AE83" s="39"/>
-      <c r="AF83" s="39"/>
+      <c r="Z83" s="38"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="38"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="38"/>
+      <c r="AE83" s="38"/>
     </row>
     <row r="84" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="31" t="s">
-        <v>81</v>
+      <c r="B84" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -5921,88 +5853,88 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
       <c r="AE84" s="10"/>
-      <c r="AF84" s="10"/>
+      <c r="AG84" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="31"/>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="C85" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="38"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="38"/>
-      <c r="Z85" s="38"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="12"/>
       <c r="AA85" s="12"/>
       <c r="AB85" s="12"/>
       <c r="AC85" s="12"/>
       <c r="AD85" s="12"/>
       <c r="AE85" s="12"/>
-      <c r="AF85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D86" s="33"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="38"/>
-      <c r="Z86" s="38"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="12"/>
       <c r="AA86" s="12"/>
       <c r="AB86" s="12"/>
       <c r="AC86" s="12"/>
       <c r="AD86" s="12"/>
       <c r="AE86" s="12"/>
-      <c r="AF86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="19" t="s">
+      <c r="B87" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -6024,35 +5956,32 @@
       <c r="W87" s="12"/>
       <c r="X87" s="12"/>
       <c r="Y87" s="12"/>
-      <c r="Z87" s="12"/>
-      <c r="AA87" s="39"/>
-      <c r="AB87" s="39"/>
-      <c r="AC87" s="39"/>
-      <c r="AD87" s="39"/>
-      <c r="AE87" s="39"/>
-      <c r="AF87" s="39"/>
+      <c r="Z87" s="38"/>
+      <c r="AA87" s="38"/>
+      <c r="AB87" s="38"/>
+      <c r="AC87" s="38"/>
+      <c r="AD87" s="38"/>
+      <c r="AE87" s="38"/>
     </row>
     <row r="88" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="31" t="s">
-        <v>81</v>
+      <c r="B88" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -6072,88 +6001,88 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
       <c r="AE88" s="10"/>
-      <c r="AF88" s="10"/>
+      <c r="AG88" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="31"/>
-      <c r="C89" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="36" t="s">
+      <c r="C89" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="38"/>
-      <c r="X89" s="38"/>
-      <c r="Y89" s="38"/>
-      <c r="Z89" s="38"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="12"/>
       <c r="AA89" s="12"/>
       <c r="AB89" s="12"/>
       <c r="AC89" s="12"/>
       <c r="AD89" s="12"/>
       <c r="AE89" s="12"/>
-      <c r="AF89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D90" s="42"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="38"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
+      <c r="Z90" s="12"/>
       <c r="AA90" s="12"/>
       <c r="AB90" s="12"/>
       <c r="AC90" s="12"/>
       <c r="AD90" s="12"/>
       <c r="AE90" s="12"/>
-      <c r="AF90" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="42"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -6175,35 +6104,32 @@
       <c r="W91" s="12"/>
       <c r="X91" s="12"/>
       <c r="Y91" s="12"/>
-      <c r="Z91" s="12"/>
-      <c r="AA91" s="39"/>
-      <c r="AB91" s="39"/>
-      <c r="AC91" s="39"/>
-      <c r="AD91" s="39"/>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
+      <c r="Z91" s="38"/>
+      <c r="AA91" s="38"/>
+      <c r="AB91" s="38"/>
+      <c r="AC91" s="38"/>
+      <c r="AD91" s="38"/>
+      <c r="AE91" s="38"/>
     </row>
     <row r="92" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="31" t="s">
-        <v>81</v>
+      <c r="B92" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -6223,88 +6149,88 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
       <c r="AE92" s="10"/>
-      <c r="AF92" s="10"/>
+      <c r="AG92" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="31"/>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D93" s="36" t="s">
+      <c r="C93" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
-      <c r="S93" s="38"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38"/>
-      <c r="V93" s="38"/>
-      <c r="W93" s="38"/>
-      <c r="X93" s="38"/>
-      <c r="Y93" s="38"/>
-      <c r="Z93" s="38"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+      <c r="Y93" s="37"/>
+      <c r="Z93" s="12"/>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
-      <c r="AF93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D94" s="42"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="38"/>
-      <c r="X94" s="38"/>
-      <c r="Y94" s="38"/>
-      <c r="Z94" s="38"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="37"/>
+      <c r="Z94" s="12"/>
       <c r="AA94" s="12"/>
       <c r="AB94" s="12"/>
       <c r="AC94" s="12"/>
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
-      <c r="AF94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="19" t="s">
+      <c r="B95" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D95" s="33"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
@@ -6326,35 +6252,32 @@
       <c r="W95" s="12"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="12"/>
-      <c r="Z95" s="12"/>
-      <c r="AA95" s="39"/>
-      <c r="AB95" s="39"/>
-      <c r="AC95" s="39"/>
-      <c r="AD95" s="39"/>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
+      <c r="Z95" s="38"/>
+      <c r="AA95" s="38"/>
+      <c r="AB95" s="38"/>
+      <c r="AC95" s="38"/>
+      <c r="AD95" s="38"/>
+      <c r="AE95" s="38"/>
     </row>
     <row r="96" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="31" t="s">
-        <v>81</v>
+      <c r="B96" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -6374,88 +6297,88 @@
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
       <c r="AE96" s="10"/>
-      <c r="AF96" s="10"/>
+      <c r="AG96" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="31"/>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D97" s="36" t="s">
+      <c r="C97" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="38"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38"/>
-      <c r="S97" s="38"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="38"/>
-      <c r="W97" s="38"/>
-      <c r="X97" s="38"/>
-      <c r="Y97" s="38"/>
-      <c r="Z97" s="38"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="37"/>
+      <c r="X97" s="37"/>
+      <c r="Y97" s="37"/>
+      <c r="Z97" s="12"/>
       <c r="AA97" s="12"/>
       <c r="AB97" s="12"/>
       <c r="AC97" s="12"/>
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
-      <c r="AF97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D98" s="33"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="38"/>
-      <c r="O98" s="38"/>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
-      <c r="R98" s="38"/>
-      <c r="S98" s="38"/>
-      <c r="T98" s="38"/>
-      <c r="U98" s="38"/>
-      <c r="V98" s="38"/>
-      <c r="W98" s="38"/>
-      <c r="X98" s="38"/>
-      <c r="Y98" s="38"/>
-      <c r="Z98" s="38"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="37"/>
+      <c r="Y98" s="37"/>
+      <c r="Z98" s="12"/>
       <c r="AA98" s="12"/>
       <c r="AB98" s="12"/>
       <c r="AC98" s="12"/>
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
-      <c r="AF98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="19" t="s">
+      <c r="B99" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="42"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
@@ -6477,35 +6400,32 @@
       <c r="W99" s="12"/>
       <c r="X99" s="12"/>
       <c r="Y99" s="12"/>
-      <c r="Z99" s="12"/>
-      <c r="AA99" s="39"/>
-      <c r="AB99" s="39"/>
-      <c r="AC99" s="39"/>
-      <c r="AD99" s="39"/>
-      <c r="AE99" s="39"/>
-      <c r="AF99" s="39"/>
+      <c r="Z99" s="38"/>
+      <c r="AA99" s="38"/>
+      <c r="AB99" s="38"/>
+      <c r="AC99" s="38"/>
+      <c r="AD99" s="38"/>
+      <c r="AE99" s="38"/>
     </row>
     <row r="100" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B100" s="31" t="s">
-        <v>81</v>
+      <c r="B100" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="37"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -6525,88 +6445,88 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
       <c r="AE100" s="10"/>
-      <c r="AF100" s="10"/>
+      <c r="AG100" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="31"/>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D101" s="36" t="s">
+      <c r="C101" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="38"/>
-      <c r="L101" s="38"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="38"/>
-      <c r="O101" s="38"/>
-      <c r="P101" s="38"/>
-      <c r="Q101" s="38"/>
-      <c r="R101" s="38"/>
-      <c r="S101" s="38"/>
-      <c r="T101" s="38"/>
-      <c r="U101" s="38"/>
-      <c r="V101" s="38"/>
-      <c r="W101" s="38"/>
-      <c r="X101" s="38"/>
-      <c r="Y101" s="38"/>
-      <c r="Z101" s="38"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="37"/>
+      <c r="X101" s="37"/>
+      <c r="Y101" s="37"/>
+      <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
       <c r="AB101" s="12"/>
       <c r="AC101" s="12"/>
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
-      <c r="AF101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="42"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="38"/>
-      <c r="O102" s="38"/>
-      <c r="P102" s="38"/>
-      <c r="Q102" s="38"/>
-      <c r="R102" s="38"/>
-      <c r="S102" s="38"/>
-      <c r="T102" s="38"/>
-      <c r="U102" s="38"/>
-      <c r="V102" s="38"/>
-      <c r="W102" s="38"/>
-      <c r="X102" s="38"/>
-      <c r="Y102" s="38"/>
-      <c r="Z102" s="38"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="37"/>
+      <c r="U102" s="37"/>
+      <c r="V102" s="37"/>
+      <c r="W102" s="37"/>
+      <c r="X102" s="37"/>
+      <c r="Y102" s="37"/>
+      <c r="Z102" s="12"/>
       <c r="AA102" s="12"/>
       <c r="AB102" s="12"/>
       <c r="AC102" s="12"/>
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
-      <c r="AF102" s="12"/>
     </row>
     <row r="103" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="19" t="s">
+      <c r="B103" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="42"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
@@ -6628,35 +6548,32 @@
       <c r="W103" s="12"/>
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
-      <c r="Z103" s="12"/>
-      <c r="AA103" s="39"/>
-      <c r="AB103" s="39"/>
-      <c r="AC103" s="39"/>
-      <c r="AD103" s="39"/>
-      <c r="AE103" s="39"/>
-      <c r="AF103" s="39"/>
+      <c r="Z103" s="38"/>
+      <c r="AA103" s="38"/>
+      <c r="AB103" s="38"/>
+      <c r="AC103" s="38"/>
+      <c r="AD103" s="38"/>
+      <c r="AE103" s="38"/>
     </row>
     <row r="104" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="31" t="s">
-        <v>87</v>
+      <c r="B104" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="37"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
@@ -6676,88 +6593,88 @@
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
       <c r="AE104" s="10"/>
-      <c r="AF104" s="10"/>
+      <c r="AG104" s="0" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="31"/>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="C105" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="38"/>
-      <c r="L105" s="38"/>
-      <c r="M105" s="38"/>
-      <c r="N105" s="38"/>
-      <c r="O105" s="38"/>
-      <c r="P105" s="38"/>
-      <c r="Q105" s="38"/>
-      <c r="R105" s="38"/>
-      <c r="S105" s="38"/>
-      <c r="T105" s="38"/>
-      <c r="U105" s="38"/>
-      <c r="V105" s="38"/>
-      <c r="W105" s="38"/>
-      <c r="X105" s="38"/>
-      <c r="Y105" s="38"/>
-      <c r="Z105" s="38"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="37"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
+      <c r="U105" s="37"/>
+      <c r="V105" s="37"/>
+      <c r="W105" s="37"/>
+      <c r="X105" s="37"/>
+      <c r="Y105" s="37"/>
+      <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
       <c r="AB105" s="12"/>
       <c r="AC105" s="12"/>
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
-      <c r="AF105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D106" s="42"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="38"/>
-      <c r="L106" s="38"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="38"/>
-      <c r="P106" s="38"/>
-      <c r="Q106" s="38"/>
-      <c r="R106" s="38"/>
-      <c r="S106" s="38"/>
-      <c r="T106" s="38"/>
-      <c r="U106" s="38"/>
-      <c r="V106" s="38"/>
-      <c r="W106" s="38"/>
-      <c r="X106" s="38"/>
-      <c r="Y106" s="38"/>
-      <c r="Z106" s="38"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="37"/>
+      <c r="R106" s="37"/>
+      <c r="S106" s="37"/>
+      <c r="T106" s="37"/>
+      <c r="U106" s="37"/>
+      <c r="V106" s="37"/>
+      <c r="W106" s="37"/>
+      <c r="X106" s="37"/>
+      <c r="Y106" s="37"/>
+      <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
       <c r="AB106" s="12"/>
       <c r="AC106" s="12"/>
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
-      <c r="AF106" s="12"/>
     </row>
     <row r="107" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="19" t="s">
+      <c r="B107" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D107" s="33"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
@@ -6779,35 +6696,32 @@
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
-      <c r="Z107" s="12"/>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="39"/>
-      <c r="AE107" s="39"/>
-      <c r="AF107" s="39"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="38"/>
+      <c r="AD107" s="38"/>
+      <c r="AE107" s="38"/>
     </row>
     <row r="108" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B108" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="40" t="s">
+      <c r="B108" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="37"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
@@ -6827,88 +6741,88 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
       <c r="AE108" s="10"/>
-      <c r="AF108" s="10"/>
+      <c r="AG108" s="0" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="31"/>
-      <c r="C109" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D109" s="40" t="s">
+      <c r="C109" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="38"/>
-      <c r="Q109" s="38"/>
-      <c r="R109" s="38"/>
-      <c r="S109" s="38"/>
-      <c r="T109" s="38"/>
-      <c r="U109" s="38"/>
-      <c r="V109" s="38"/>
-      <c r="W109" s="38"/>
-      <c r="X109" s="38"/>
-      <c r="Y109" s="38"/>
-      <c r="Z109" s="38"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
+      <c r="O109" s="37"/>
+      <c r="P109" s="37"/>
+      <c r="Q109" s="37"/>
+      <c r="R109" s="37"/>
+      <c r="S109" s="37"/>
+      <c r="T109" s="37"/>
+      <c r="U109" s="37"/>
+      <c r="V109" s="37"/>
+      <c r="W109" s="37"/>
+      <c r="X109" s="37"/>
+      <c r="Y109" s="37"/>
+      <c r="Z109" s="12"/>
       <c r="AA109" s="12"/>
       <c r="AB109" s="12"/>
       <c r="AC109" s="12"/>
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
-      <c r="AF109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="5" t="s">
+      <c r="B110" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D110" s="33"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="38"/>
-      <c r="O110" s="38"/>
-      <c r="P110" s="38"/>
-      <c r="Q110" s="38"/>
-      <c r="R110" s="38"/>
-      <c r="S110" s="38"/>
-      <c r="T110" s="38"/>
-      <c r="U110" s="38"/>
-      <c r="V110" s="38"/>
-      <c r="W110" s="38"/>
-      <c r="X110" s="38"/>
-      <c r="Y110" s="38"/>
-      <c r="Z110" s="38"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="37"/>
+      <c r="O110" s="37"/>
+      <c r="P110" s="37"/>
+      <c r="Q110" s="37"/>
+      <c r="R110" s="37"/>
+      <c r="S110" s="37"/>
+      <c r="T110" s="37"/>
+      <c r="U110" s="37"/>
+      <c r="V110" s="37"/>
+      <c r="W110" s="37"/>
+      <c r="X110" s="37"/>
+      <c r="Y110" s="37"/>
+      <c r="Z110" s="12"/>
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
       <c r="AC110" s="12"/>
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
-      <c r="AF110" s="12"/>
     </row>
     <row r="111" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="19" t="s">
+      <c r="B111" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D111" s="42"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
@@ -6930,35 +6844,32 @@
       <c r="W111" s="12"/>
       <c r="X111" s="12"/>
       <c r="Y111" s="12"/>
-      <c r="Z111" s="12"/>
-      <c r="AA111" s="39"/>
-      <c r="AB111" s="39"/>
-      <c r="AC111" s="39"/>
-      <c r="AD111" s="39"/>
-      <c r="AE111" s="39"/>
-      <c r="AF111" s="39"/>
+      <c r="Z111" s="38"/>
+      <c r="AA111" s="38"/>
+      <c r="AB111" s="38"/>
+      <c r="AC111" s="38"/>
+      <c r="AD111" s="38"/>
+      <c r="AE111" s="38"/>
     </row>
     <row r="112" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="40" t="s">
+      <c r="B112" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="37"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="10"/>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -6978,88 +6889,88 @@
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
       <c r="AE112" s="10"/>
-      <c r="AF112" s="10"/>
+      <c r="AG112" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="31"/>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="40" t="s">
+      <c r="C113" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="38"/>
-      <c r="O113" s="38"/>
-      <c r="P113" s="38"/>
-      <c r="Q113" s="38"/>
-      <c r="R113" s="38"/>
-      <c r="S113" s="38"/>
-      <c r="T113" s="38"/>
-      <c r="U113" s="38"/>
-      <c r="V113" s="38"/>
-      <c r="W113" s="38"/>
-      <c r="X113" s="38"/>
-      <c r="Y113" s="38"/>
-      <c r="Z113" s="38"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="37"/>
+      <c r="P113" s="37"/>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="37"/>
+      <c r="T113" s="37"/>
+      <c r="U113" s="37"/>
+      <c r="V113" s="37"/>
+      <c r="W113" s="37"/>
+      <c r="X113" s="37"/>
+      <c r="Y113" s="37"/>
+      <c r="Z113" s="12"/>
       <c r="AA113" s="12"/>
       <c r="AB113" s="12"/>
       <c r="AC113" s="12"/>
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
-      <c r="AF113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D114" s="42"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="38"/>
-      <c r="L114" s="38"/>
-      <c r="M114" s="38"/>
-      <c r="N114" s="38"/>
-      <c r="O114" s="38"/>
-      <c r="P114" s="38"/>
-      <c r="Q114" s="38"/>
-      <c r="R114" s="38"/>
-      <c r="S114" s="38"/>
-      <c r="T114" s="38"/>
-      <c r="U114" s="38"/>
-      <c r="V114" s="38"/>
-      <c r="W114" s="38"/>
-      <c r="X114" s="38"/>
-      <c r="Y114" s="38"/>
-      <c r="Z114" s="38"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="37"/>
+      <c r="T114" s="37"/>
+      <c r="U114" s="37"/>
+      <c r="V114" s="37"/>
+      <c r="W114" s="37"/>
+      <c r="X114" s="37"/>
+      <c r="Y114" s="37"/>
+      <c r="Z114" s="12"/>
       <c r="AA114" s="12"/>
       <c r="AB114" s="12"/>
       <c r="AC114" s="12"/>
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
-      <c r="AF114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="19" t="s">
+      <c r="B115" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="42"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
@@ -7081,35 +6992,32 @@
       <c r="W115" s="12"/>
       <c r="X115" s="12"/>
       <c r="Y115" s="12"/>
-      <c r="Z115" s="12"/>
-      <c r="AA115" s="39"/>
-      <c r="AB115" s="39"/>
-      <c r="AC115" s="39"/>
-      <c r="AD115" s="39"/>
-      <c r="AE115" s="39"/>
-      <c r="AF115" s="39"/>
+      <c r="Z115" s="38"/>
+      <c r="AA115" s="38"/>
+      <c r="AB115" s="38"/>
+      <c r="AC115" s="38"/>
+      <c r="AD115" s="38"/>
+      <c r="AE115" s="38"/>
     </row>
     <row r="116" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B116" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" s="40" t="s">
+      <c r="B116" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
-      <c r="K116" s="37"/>
-      <c r="L116" s="37"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+      <c r="L116" s="10"/>
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
@@ -7129,88 +7037,88 @@
       <c r="AC116" s="10"/>
       <c r="AD116" s="10"/>
       <c r="AE116" s="10"/>
-      <c r="AF116" s="10"/>
+      <c r="AG116" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="31"/>
-      <c r="C117" s="5" t="s">
+      <c r="B117" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="C117" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="38"/>
-      <c r="P117" s="38"/>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="38"/>
-      <c r="S117" s="38"/>
-      <c r="T117" s="38"/>
-      <c r="U117" s="38"/>
-      <c r="V117" s="38"/>
-      <c r="W117" s="38"/>
-      <c r="X117" s="38"/>
-      <c r="Y117" s="38"/>
-      <c r="Z117" s="38"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="37"/>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="37"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="37"/>
+      <c r="T117" s="37"/>
+      <c r="U117" s="37"/>
+      <c r="V117" s="37"/>
+      <c r="W117" s="37"/>
+      <c r="X117" s="37"/>
+      <c r="Y117" s="37"/>
+      <c r="Z117" s="12"/>
       <c r="AA117" s="12"/>
       <c r="AB117" s="12"/>
       <c r="AC117" s="12"/>
       <c r="AD117" s="12"/>
       <c r="AE117" s="12"/>
-      <c r="AF117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D118" s="42"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="38"/>
-      <c r="L118" s="38"/>
-      <c r="M118" s="38"/>
-      <c r="N118" s="38"/>
-      <c r="O118" s="38"/>
-      <c r="P118" s="38"/>
-      <c r="Q118" s="38"/>
-      <c r="R118" s="38"/>
-      <c r="S118" s="38"/>
-      <c r="T118" s="38"/>
-      <c r="U118" s="38"/>
-      <c r="V118" s="38"/>
-      <c r="W118" s="38"/>
-      <c r="X118" s="38"/>
-      <c r="Y118" s="38"/>
-      <c r="Z118" s="38"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="37"/>
+      <c r="O118" s="37"/>
+      <c r="P118" s="37"/>
+      <c r="Q118" s="37"/>
+      <c r="R118" s="37"/>
+      <c r="S118" s="37"/>
+      <c r="T118" s="37"/>
+      <c r="U118" s="37"/>
+      <c r="V118" s="37"/>
+      <c r="W118" s="37"/>
+      <c r="X118" s="37"/>
+      <c r="Y118" s="37"/>
+      <c r="Z118" s="12"/>
       <c r="AA118" s="12"/>
       <c r="AB118" s="12"/>
       <c r="AC118" s="12"/>
       <c r="AD118" s="12"/>
       <c r="AE118" s="12"/>
-      <c r="AF118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="19" t="s">
+      <c r="B119" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D119" s="33"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
@@ -7232,35 +7140,32 @@
       <c r="W119" s="12"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="12"/>
-      <c r="Z119" s="12"/>
-      <c r="AA119" s="39"/>
-      <c r="AB119" s="39"/>
-      <c r="AC119" s="39"/>
-      <c r="AD119" s="39"/>
-      <c r="AE119" s="39"/>
-      <c r="AF119" s="39"/>
+      <c r="Z119" s="38"/>
+      <c r="AA119" s="38"/>
+      <c r="AB119" s="38"/>
+      <c r="AC119" s="38"/>
+      <c r="AD119" s="38"/>
+      <c r="AE119" s="38"/>
     </row>
     <row r="120" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D120" s="40" t="s">
+      <c r="B120" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="37"/>
-      <c r="L120" s="37"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
+      <c r="L120" s="10"/>
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -7280,87 +7185,87 @@
       <c r="AC120" s="10"/>
       <c r="AD120" s="10"/>
       <c r="AE120" s="10"/>
-      <c r="AF120" s="10"/>
+      <c r="AG120" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="31"/>
-      <c r="C121" s="5" t="s">
+      <c r="B121" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D121" s="40" t="s">
+      <c r="C121" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="38"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="38"/>
-      <c r="N121" s="38"/>
-      <c r="O121" s="38"/>
-      <c r="P121" s="38"/>
-      <c r="Q121" s="38"/>
-      <c r="R121" s="38"/>
-      <c r="S121" s="38"/>
-      <c r="T121" s="38"/>
-      <c r="U121" s="38"/>
-      <c r="V121" s="38"/>
-      <c r="W121" s="38"/>
-      <c r="X121" s="38"/>
-      <c r="Y121" s="38"/>
-      <c r="Z121" s="38"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="37"/>
+      <c r="O121" s="37"/>
+      <c r="P121" s="37"/>
+      <c r="Q121" s="37"/>
+      <c r="R121" s="37"/>
+      <c r="S121" s="37"/>
+      <c r="T121" s="37"/>
+      <c r="U121" s="37"/>
+      <c r="V121" s="37"/>
+      <c r="W121" s="37"/>
+      <c r="X121" s="37"/>
+      <c r="Y121" s="37"/>
+      <c r="Z121" s="12"/>
       <c r="AA121" s="12"/>
       <c r="AB121" s="12"/>
       <c r="AC121" s="12"/>
       <c r="AD121" s="12"/>
       <c r="AE121" s="12"/>
-      <c r="AF121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="38"/>
-      <c r="L122" s="38"/>
-      <c r="M122" s="38"/>
-      <c r="N122" s="38"/>
-      <c r="O122" s="38"/>
-      <c r="P122" s="38"/>
-      <c r="Q122" s="38"/>
-      <c r="R122" s="38"/>
-      <c r="S122" s="38"/>
-      <c r="T122" s="38"/>
-      <c r="U122" s="38"/>
-      <c r="V122" s="38"/>
-      <c r="W122" s="38"/>
-      <c r="X122" s="38"/>
-      <c r="Y122" s="38"/>
-      <c r="Z122" s="38"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="37"/>
+      <c r="O122" s="37"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="37"/>
+      <c r="R122" s="37"/>
+      <c r="S122" s="37"/>
+      <c r="T122" s="37"/>
+      <c r="U122" s="37"/>
+      <c r="V122" s="37"/>
+      <c r="W122" s="37"/>
+      <c r="X122" s="37"/>
+      <c r="Y122" s="37"/>
+      <c r="Z122" s="12"/>
       <c r="AA122" s="12"/>
       <c r="AB122" s="12"/>
       <c r="AC122" s="12"/>
       <c r="AD122" s="12"/>
       <c r="AE122" s="12"/>
-      <c r="AF122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="19" t="s">
+      <c r="B123" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D123" s="42"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -7382,35 +7287,32 @@
       <c r="W123" s="12"/>
       <c r="X123" s="12"/>
       <c r="Y123" s="12"/>
-      <c r="Z123" s="12"/>
-      <c r="AA123" s="39"/>
-      <c r="AB123" s="39"/>
-      <c r="AC123" s="39"/>
-      <c r="AD123" s="39"/>
-      <c r="AE123" s="39"/>
-      <c r="AF123" s="39"/>
+      <c r="Z123" s="38"/>
+      <c r="AA123" s="38"/>
+      <c r="AB123" s="38"/>
+      <c r="AC123" s="38"/>
+      <c r="AD123" s="38"/>
+      <c r="AE123" s="38"/>
     </row>
     <row r="124" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B124" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C124" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="40" t="s">
+      <c r="B124" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37"/>
-      <c r="K124" s="37"/>
-      <c r="L124" s="37"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
+      <c r="L124" s="10"/>
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -7430,88 +7332,88 @@
       <c r="AC124" s="10"/>
       <c r="AD124" s="10"/>
       <c r="AE124" s="10"/>
-      <c r="AF124" s="10"/>
+      <c r="AG124" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="31"/>
-      <c r="C125" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D125" s="40" t="s">
+      <c r="C125" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="38"/>
-      <c r="L125" s="38"/>
-      <c r="M125" s="38"/>
-      <c r="N125" s="38"/>
-      <c r="O125" s="38"/>
-      <c r="P125" s="38"/>
-      <c r="Q125" s="38"/>
-      <c r="R125" s="38"/>
-      <c r="S125" s="38"/>
-      <c r="T125" s="38"/>
-      <c r="U125" s="38"/>
-      <c r="V125" s="38"/>
-      <c r="W125" s="38"/>
-      <c r="X125" s="38"/>
-      <c r="Y125" s="38"/>
-      <c r="Z125" s="38"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
+      <c r="O125" s="37"/>
+      <c r="P125" s="37"/>
+      <c r="Q125" s="37"/>
+      <c r="R125" s="37"/>
+      <c r="S125" s="37"/>
+      <c r="T125" s="37"/>
+      <c r="U125" s="37"/>
+      <c r="V125" s="37"/>
+      <c r="W125" s="37"/>
+      <c r="X125" s="37"/>
+      <c r="Y125" s="37"/>
+      <c r="Z125" s="12"/>
       <c r="AA125" s="12"/>
       <c r="AB125" s="12"/>
       <c r="AC125" s="12"/>
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
-      <c r="AF125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="5" t="s">
+      <c r="B126" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D126" s="43"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="38"/>
-      <c r="L126" s="38"/>
-      <c r="M126" s="38"/>
-      <c r="N126" s="38"/>
-      <c r="O126" s="38"/>
-      <c r="P126" s="38"/>
-      <c r="Q126" s="38"/>
-      <c r="R126" s="38"/>
-      <c r="S126" s="38"/>
-      <c r="T126" s="38"/>
-      <c r="U126" s="38"/>
-      <c r="V126" s="38"/>
-      <c r="W126" s="38"/>
-      <c r="X126" s="38"/>
-      <c r="Y126" s="38"/>
-      <c r="Z126" s="38"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="37"/>
+      <c r="R126" s="37"/>
+      <c r="S126" s="37"/>
+      <c r="T126" s="37"/>
+      <c r="U126" s="37"/>
+      <c r="V126" s="37"/>
+      <c r="W126" s="37"/>
+      <c r="X126" s="37"/>
+      <c r="Y126" s="37"/>
+      <c r="Z126" s="12"/>
       <c r="AA126" s="12"/>
       <c r="AB126" s="12"/>
       <c r="AC126" s="12"/>
       <c r="AD126" s="12"/>
       <c r="AE126" s="12"/>
-      <c r="AF126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="19" t="s">
+      <c r="B127" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D127" s="43"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -7533,35 +7435,32 @@
       <c r="W127" s="12"/>
       <c r="X127" s="12"/>
       <c r="Y127" s="12"/>
-      <c r="Z127" s="12"/>
-      <c r="AA127" s="39"/>
-      <c r="AB127" s="39"/>
-      <c r="AC127" s="39"/>
-      <c r="AD127" s="39"/>
-      <c r="AE127" s="39"/>
-      <c r="AF127" s="39"/>
+      <c r="Z127" s="38"/>
+      <c r="AA127" s="38"/>
+      <c r="AB127" s="38"/>
+      <c r="AC127" s="38"/>
+      <c r="AD127" s="38"/>
+      <c r="AE127" s="38"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B128" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D128" s="40" t="s">
+      <c r="B128" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="37"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
+      <c r="L128" s="10"/>
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
@@ -7581,88 +7480,88 @@
       <c r="AC128" s="10"/>
       <c r="AD128" s="10"/>
       <c r="AE128" s="10"/>
-      <c r="AF128" s="10"/>
+      <c r="AG128" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="31"/>
-      <c r="C129" s="5" t="s">
+      <c r="B129" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D129" s="40" t="s">
+      <c r="C129" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="38"/>
-      <c r="L129" s="38"/>
-      <c r="M129" s="38"/>
-      <c r="N129" s="38"/>
-      <c r="O129" s="38"/>
-      <c r="P129" s="38"/>
-      <c r="Q129" s="38"/>
-      <c r="R129" s="38"/>
-      <c r="S129" s="38"/>
-      <c r="T129" s="38"/>
-      <c r="U129" s="38"/>
-      <c r="V129" s="38"/>
-      <c r="W129" s="38"/>
-      <c r="X129" s="38"/>
-      <c r="Y129" s="38"/>
-      <c r="Z129" s="38"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="37"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="37"/>
+      <c r="O129" s="37"/>
+      <c r="P129" s="37"/>
+      <c r="Q129" s="37"/>
+      <c r="R129" s="37"/>
+      <c r="S129" s="37"/>
+      <c r="T129" s="37"/>
+      <c r="U129" s="37"/>
+      <c r="V129" s="37"/>
+      <c r="W129" s="37"/>
+      <c r="X129" s="37"/>
+      <c r="Y129" s="37"/>
+      <c r="Z129" s="12"/>
       <c r="AA129" s="12"/>
       <c r="AB129" s="12"/>
       <c r="AC129" s="12"/>
       <c r="AD129" s="12"/>
       <c r="AE129" s="12"/>
-      <c r="AF129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="5" t="s">
+      <c r="B130" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D130" s="43"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="38"/>
-      <c r="L130" s="38"/>
-      <c r="M130" s="38"/>
-      <c r="N130" s="38"/>
-      <c r="O130" s="38"/>
-      <c r="P130" s="38"/>
-      <c r="Q130" s="38"/>
-      <c r="R130" s="38"/>
-      <c r="S130" s="38"/>
-      <c r="T130" s="38"/>
-      <c r="U130" s="38"/>
-      <c r="V130" s="38"/>
-      <c r="W130" s="38"/>
-      <c r="X130" s="38"/>
-      <c r="Y130" s="38"/>
-      <c r="Z130" s="38"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
+      <c r="O130" s="37"/>
+      <c r="P130" s="37"/>
+      <c r="Q130" s="37"/>
+      <c r="R130" s="37"/>
+      <c r="S130" s="37"/>
+      <c r="T130" s="37"/>
+      <c r="U130" s="37"/>
+      <c r="V130" s="37"/>
+      <c r="W130" s="37"/>
+      <c r="X130" s="37"/>
+      <c r="Y130" s="37"/>
+      <c r="Z130" s="12"/>
       <c r="AA130" s="12"/>
       <c r="AB130" s="12"/>
       <c r="AC130" s="12"/>
       <c r="AD130" s="12"/>
       <c r="AE130" s="12"/>
-      <c r="AF130" s="12"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="19" t="s">
+      <c r="B131" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D131" s="43"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
@@ -7684,35 +7583,32 @@
       <c r="W131" s="12"/>
       <c r="X131" s="12"/>
       <c r="Y131" s="12"/>
-      <c r="Z131" s="12"/>
-      <c r="AA131" s="39"/>
-      <c r="AB131" s="39"/>
-      <c r="AC131" s="39"/>
-      <c r="AD131" s="39"/>
-      <c r="AE131" s="39"/>
-      <c r="AF131" s="39"/>
+      <c r="Z131" s="38"/>
+      <c r="AA131" s="38"/>
+      <c r="AB131" s="38"/>
+      <c r="AC131" s="38"/>
+      <c r="AD131" s="38"/>
+      <c r="AE131" s="38"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B132" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C132" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="40" t="s">
+      <c r="B132" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="37"/>
-      <c r="K132" s="37"/>
-      <c r="L132" s="37"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="10"/>
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
@@ -7732,88 +7628,88 @@
       <c r="AC132" s="10"/>
       <c r="AD132" s="10"/>
       <c r="AE132" s="10"/>
-      <c r="AF132" s="10"/>
+      <c r="AG132" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="31"/>
-      <c r="C133" s="5" t="s">
+      <c r="B133" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D133" s="40" t="s">
+      <c r="C133" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
-      <c r="O133" s="38"/>
-      <c r="P133" s="38"/>
-      <c r="Q133" s="38"/>
-      <c r="R133" s="38"/>
-      <c r="S133" s="38"/>
-      <c r="T133" s="38"/>
-      <c r="U133" s="38"/>
-      <c r="V133" s="38"/>
-      <c r="W133" s="38"/>
-      <c r="X133" s="38"/>
-      <c r="Y133" s="38"/>
-      <c r="Z133" s="38"/>
+      <c r="J133" s="37"/>
+      <c r="K133" s="37"/>
+      <c r="L133" s="37"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="37"/>
+      <c r="O133" s="37"/>
+      <c r="P133" s="37"/>
+      <c r="Q133" s="37"/>
+      <c r="R133" s="37"/>
+      <c r="S133" s="37"/>
+      <c r="T133" s="37"/>
+      <c r="U133" s="37"/>
+      <c r="V133" s="37"/>
+      <c r="W133" s="37"/>
+      <c r="X133" s="37"/>
+      <c r="Y133" s="37"/>
+      <c r="Z133" s="12"/>
       <c r="AA133" s="12"/>
       <c r="AB133" s="12"/>
       <c r="AC133" s="12"/>
       <c r="AD133" s="12"/>
       <c r="AE133" s="12"/>
-      <c r="AF133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="5" t="s">
+      <c r="B134" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D134" s="43"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="38"/>
-      <c r="L134" s="38"/>
-      <c r="M134" s="38"/>
-      <c r="N134" s="38"/>
-      <c r="O134" s="38"/>
-      <c r="P134" s="38"/>
-      <c r="Q134" s="38"/>
-      <c r="R134" s="38"/>
-      <c r="S134" s="38"/>
-      <c r="T134" s="38"/>
-      <c r="U134" s="38"/>
-      <c r="V134" s="38"/>
-      <c r="W134" s="38"/>
-      <c r="X134" s="38"/>
-      <c r="Y134" s="38"/>
-      <c r="Z134" s="38"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="37"/>
+      <c r="L134" s="37"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="37"/>
+      <c r="O134" s="37"/>
+      <c r="P134" s="37"/>
+      <c r="Q134" s="37"/>
+      <c r="R134" s="37"/>
+      <c r="S134" s="37"/>
+      <c r="T134" s="37"/>
+      <c r="U134" s="37"/>
+      <c r="V134" s="37"/>
+      <c r="W134" s="37"/>
+      <c r="X134" s="37"/>
+      <c r="Y134" s="37"/>
+      <c r="Z134" s="12"/>
       <c r="AA134" s="12"/>
       <c r="AB134" s="12"/>
       <c r="AC134" s="12"/>
       <c r="AD134" s="12"/>
       <c r="AE134" s="12"/>
-      <c r="AF134" s="12"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="19" t="s">
+      <c r="B135" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D135" s="43"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
@@ -7835,35 +7731,32 @@
       <c r="W135" s="12"/>
       <c r="X135" s="12"/>
       <c r="Y135" s="12"/>
-      <c r="Z135" s="12"/>
-      <c r="AA135" s="39"/>
-      <c r="AB135" s="39"/>
-      <c r="AC135" s="39"/>
-      <c r="AD135" s="39"/>
-      <c r="AE135" s="39"/>
-      <c r="AF135" s="39"/>
+      <c r="Z135" s="38"/>
+      <c r="AA135" s="38"/>
+      <c r="AB135" s="38"/>
+      <c r="AC135" s="38"/>
+      <c r="AD135" s="38"/>
+      <c r="AE135" s="38"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B136" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C136" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="40" t="s">
+      <c r="B136" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
-      <c r="K136" s="37"/>
-      <c r="L136" s="37"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
+      <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
@@ -7883,88 +7776,88 @@
       <c r="AC136" s="10"/>
       <c r="AD136" s="10"/>
       <c r="AE136" s="10"/>
-      <c r="AF136" s="10"/>
+      <c r="AG136" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="31"/>
-      <c r="C137" s="5" t="s">
+      <c r="B137" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D137" s="40" t="s">
+      <c r="C137" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
-      <c r="M137" s="38"/>
-      <c r="N137" s="38"/>
-      <c r="O137" s="38"/>
-      <c r="P137" s="38"/>
-      <c r="Q137" s="38"/>
-      <c r="R137" s="38"/>
-      <c r="S137" s="38"/>
-      <c r="T137" s="38"/>
-      <c r="U137" s="38"/>
-      <c r="V137" s="38"/>
-      <c r="W137" s="38"/>
-      <c r="X137" s="38"/>
-      <c r="Y137" s="38"/>
-      <c r="Z137" s="38"/>
+      <c r="J137" s="37"/>
+      <c r="K137" s="37"/>
+      <c r="L137" s="37"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="37"/>
+      <c r="O137" s="37"/>
+      <c r="P137" s="37"/>
+      <c r="Q137" s="37"/>
+      <c r="R137" s="37"/>
+      <c r="S137" s="37"/>
+      <c r="T137" s="37"/>
+      <c r="U137" s="37"/>
+      <c r="V137" s="37"/>
+      <c r="W137" s="37"/>
+      <c r="X137" s="37"/>
+      <c r="Y137" s="37"/>
+      <c r="Z137" s="12"/>
       <c r="AA137" s="12"/>
       <c r="AB137" s="12"/>
       <c r="AC137" s="12"/>
       <c r="AD137" s="12"/>
       <c r="AE137" s="12"/>
-      <c r="AF137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="5" t="s">
+      <c r="B138" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D138" s="43"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="38"/>
-      <c r="L138" s="38"/>
-      <c r="M138" s="38"/>
-      <c r="N138" s="38"/>
-      <c r="O138" s="38"/>
-      <c r="P138" s="38"/>
-      <c r="Q138" s="38"/>
-      <c r="R138" s="38"/>
-      <c r="S138" s="38"/>
-      <c r="T138" s="38"/>
-      <c r="U138" s="38"/>
-      <c r="V138" s="38"/>
-      <c r="W138" s="38"/>
-      <c r="X138" s="38"/>
-      <c r="Y138" s="38"/>
-      <c r="Z138" s="38"/>
+      <c r="J138" s="37"/>
+      <c r="K138" s="37"/>
+      <c r="L138" s="37"/>
+      <c r="M138" s="37"/>
+      <c r="N138" s="37"/>
+      <c r="O138" s="37"/>
+      <c r="P138" s="37"/>
+      <c r="Q138" s="37"/>
+      <c r="R138" s="37"/>
+      <c r="S138" s="37"/>
+      <c r="T138" s="37"/>
+      <c r="U138" s="37"/>
+      <c r="V138" s="37"/>
+      <c r="W138" s="37"/>
+      <c r="X138" s="37"/>
+      <c r="Y138" s="37"/>
+      <c r="Z138" s="12"/>
       <c r="AA138" s="12"/>
       <c r="AB138" s="12"/>
       <c r="AC138" s="12"/>
       <c r="AD138" s="12"/>
       <c r="AE138" s="12"/>
-      <c r="AF138" s="12"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="19" t="s">
+      <c r="B139" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D139" s="43"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
@@ -7986,35 +7879,32 @@
       <c r="W139" s="12"/>
       <c r="X139" s="12"/>
       <c r="Y139" s="12"/>
-      <c r="Z139" s="12"/>
-      <c r="AA139" s="39"/>
-      <c r="AB139" s="39"/>
-      <c r="AC139" s="39"/>
-      <c r="AD139" s="39"/>
-      <c r="AE139" s="39"/>
-      <c r="AF139" s="39"/>
+      <c r="Z139" s="38"/>
+      <c r="AA139" s="38"/>
+      <c r="AB139" s="38"/>
+      <c r="AC139" s="38"/>
+      <c r="AD139" s="38"/>
+      <c r="AE139" s="38"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B140" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C140" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="40" t="s">
+      <c r="B140" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="37"/>
-      <c r="K140" s="37"/>
-      <c r="L140" s="37"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="10"/>
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
@@ -8034,88 +7924,88 @@
       <c r="AC140" s="10"/>
       <c r="AD140" s="10"/>
       <c r="AE140" s="10"/>
-      <c r="AF140" s="10"/>
+      <c r="AG140" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="31"/>
-      <c r="C141" s="5" t="s">
+      <c r="B141" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D141" s="40" t="s">
+      <c r="C141" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
-      <c r="M141" s="38"/>
-      <c r="N141" s="38"/>
-      <c r="O141" s="38"/>
-      <c r="P141" s="38"/>
-      <c r="Q141" s="38"/>
-      <c r="R141" s="38"/>
-      <c r="S141" s="38"/>
-      <c r="T141" s="38"/>
-      <c r="U141" s="38"/>
-      <c r="V141" s="38"/>
-      <c r="W141" s="38"/>
-      <c r="X141" s="38"/>
-      <c r="Y141" s="38"/>
-      <c r="Z141" s="38"/>
+      <c r="J141" s="37"/>
+      <c r="K141" s="37"/>
+      <c r="L141" s="37"/>
+      <c r="M141" s="37"/>
+      <c r="N141" s="37"/>
+      <c r="O141" s="37"/>
+      <c r="P141" s="37"/>
+      <c r="Q141" s="37"/>
+      <c r="R141" s="37"/>
+      <c r="S141" s="37"/>
+      <c r="T141" s="37"/>
+      <c r="U141" s="37"/>
+      <c r="V141" s="37"/>
+      <c r="W141" s="37"/>
+      <c r="X141" s="37"/>
+      <c r="Y141" s="37"/>
+      <c r="Z141" s="12"/>
       <c r="AA141" s="12"/>
       <c r="AB141" s="12"/>
       <c r="AC141" s="12"/>
       <c r="AD141" s="12"/>
       <c r="AE141" s="12"/>
-      <c r="AF141" s="12"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="5" t="s">
+      <c r="B142" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D142" s="43"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="38"/>
-      <c r="L142" s="38"/>
-      <c r="M142" s="38"/>
-      <c r="N142" s="38"/>
-      <c r="O142" s="38"/>
-      <c r="P142" s="38"/>
-      <c r="Q142" s="38"/>
-      <c r="R142" s="38"/>
-      <c r="S142" s="38"/>
-      <c r="T142" s="38"/>
-      <c r="U142" s="38"/>
-      <c r="V142" s="38"/>
-      <c r="W142" s="38"/>
-      <c r="X142" s="38"/>
-      <c r="Y142" s="38"/>
-      <c r="Z142" s="38"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
+      <c r="L142" s="37"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="37"/>
+      <c r="O142" s="37"/>
+      <c r="P142" s="37"/>
+      <c r="Q142" s="37"/>
+      <c r="R142" s="37"/>
+      <c r="S142" s="37"/>
+      <c r="T142" s="37"/>
+      <c r="U142" s="37"/>
+      <c r="V142" s="37"/>
+      <c r="W142" s="37"/>
+      <c r="X142" s="37"/>
+      <c r="Y142" s="37"/>
+      <c r="Z142" s="12"/>
       <c r="AA142" s="12"/>
       <c r="AB142" s="12"/>
       <c r="AC142" s="12"/>
       <c r="AD142" s="12"/>
       <c r="AE142" s="12"/>
-      <c r="AF142" s="12"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="19" t="s">
+      <c r="B143" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D143" s="43"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
@@ -8137,35 +8027,32 @@
       <c r="W143" s="12"/>
       <c r="X143" s="12"/>
       <c r="Y143" s="12"/>
-      <c r="Z143" s="12"/>
-      <c r="AA143" s="39"/>
-      <c r="AB143" s="39"/>
-      <c r="AC143" s="39"/>
-      <c r="AD143" s="39"/>
-      <c r="AE143" s="39"/>
-      <c r="AF143" s="39"/>
+      <c r="Z143" s="38"/>
+      <c r="AA143" s="38"/>
+      <c r="AB143" s="38"/>
+      <c r="AC143" s="38"/>
+      <c r="AD143" s="38"/>
+      <c r="AE143" s="38"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B144" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C144" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="40" t="s">
+      <c r="B144" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="37"/>
-      <c r="L144" s="37"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
+      <c r="L144" s="10"/>
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
@@ -8185,88 +8072,88 @@
       <c r="AC144" s="10"/>
       <c r="AD144" s="10"/>
       <c r="AE144" s="10"/>
-      <c r="AF144" s="10"/>
+      <c r="AG144" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="31"/>
-      <c r="C145" s="5" t="s">
+      <c r="B145" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D145" s="40" t="s">
+      <c r="C145" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="38"/>
-      <c r="L145" s="38"/>
-      <c r="M145" s="38"/>
-      <c r="N145" s="38"/>
-      <c r="O145" s="38"/>
-      <c r="P145" s="38"/>
-      <c r="Q145" s="38"/>
-      <c r="R145" s="38"/>
-      <c r="S145" s="38"/>
-      <c r="T145" s="38"/>
-      <c r="U145" s="38"/>
-      <c r="V145" s="38"/>
-      <c r="W145" s="38"/>
-      <c r="X145" s="38"/>
-      <c r="Y145" s="38"/>
-      <c r="Z145" s="38"/>
+      <c r="J145" s="37"/>
+      <c r="K145" s="37"/>
+      <c r="L145" s="37"/>
+      <c r="M145" s="37"/>
+      <c r="N145" s="37"/>
+      <c r="O145" s="37"/>
+      <c r="P145" s="37"/>
+      <c r="Q145" s="37"/>
+      <c r="R145" s="37"/>
+      <c r="S145" s="37"/>
+      <c r="T145" s="37"/>
+      <c r="U145" s="37"/>
+      <c r="V145" s="37"/>
+      <c r="W145" s="37"/>
+      <c r="X145" s="37"/>
+      <c r="Y145" s="37"/>
+      <c r="Z145" s="12"/>
       <c r="AA145" s="12"/>
       <c r="AB145" s="12"/>
       <c r="AC145" s="12"/>
       <c r="AD145" s="12"/>
       <c r="AE145" s="12"/>
-      <c r="AF145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="5" t="s">
+      <c r="B146" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D146" s="43"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="12"/>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="38"/>
-      <c r="L146" s="38"/>
-      <c r="M146" s="38"/>
-      <c r="N146" s="38"/>
-      <c r="O146" s="38"/>
-      <c r="P146" s="38"/>
-      <c r="Q146" s="38"/>
-      <c r="R146" s="38"/>
-      <c r="S146" s="38"/>
-      <c r="T146" s="38"/>
-      <c r="U146" s="38"/>
-      <c r="V146" s="38"/>
-      <c r="W146" s="38"/>
-      <c r="X146" s="38"/>
-      <c r="Y146" s="38"/>
-      <c r="Z146" s="38"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="37"/>
+      <c r="L146" s="37"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="37"/>
+      <c r="O146" s="37"/>
+      <c r="P146" s="37"/>
+      <c r="Q146" s="37"/>
+      <c r="R146" s="37"/>
+      <c r="S146" s="37"/>
+      <c r="T146" s="37"/>
+      <c r="U146" s="37"/>
+      <c r="V146" s="37"/>
+      <c r="W146" s="37"/>
+      <c r="X146" s="37"/>
+      <c r="Y146" s="37"/>
+      <c r="Z146" s="12"/>
       <c r="AA146" s="12"/>
       <c r="AB146" s="12"/>
       <c r="AC146" s="12"/>
       <c r="AD146" s="12"/>
       <c r="AE146" s="12"/>
-      <c r="AF146" s="12"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="19" t="s">
+      <c r="B147" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D147" s="43"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
@@ -8288,35 +8175,32 @@
       <c r="W147" s="12"/>
       <c r="X147" s="12"/>
       <c r="Y147" s="12"/>
-      <c r="Z147" s="12"/>
-      <c r="AA147" s="39"/>
-      <c r="AB147" s="39"/>
-      <c r="AC147" s="39"/>
-      <c r="AD147" s="39"/>
-      <c r="AE147" s="39"/>
-      <c r="AF147" s="39"/>
+      <c r="Z147" s="38"/>
+      <c r="AA147" s="38"/>
+      <c r="AB147" s="38"/>
+      <c r="AC147" s="38"/>
+      <c r="AD147" s="38"/>
+      <c r="AE147" s="38"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B148" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C148" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="40" t="s">
+      <c r="B148" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="37"/>
-      <c r="L148" s="37"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
+      <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
@@ -8336,88 +8220,88 @@
       <c r="AC148" s="10"/>
       <c r="AD148" s="10"/>
       <c r="AE148" s="10"/>
-      <c r="AF148" s="10"/>
+      <c r="AG148" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="31"/>
-      <c r="C149" s="5" t="s">
+      <c r="B149" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D149" s="40" t="s">
+      <c r="C149" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="38"/>
-      <c r="L149" s="38"/>
-      <c r="M149" s="38"/>
-      <c r="N149" s="38"/>
-      <c r="O149" s="38"/>
-      <c r="P149" s="38"/>
-      <c r="Q149" s="38"/>
-      <c r="R149" s="38"/>
-      <c r="S149" s="38"/>
-      <c r="T149" s="38"/>
-      <c r="U149" s="38"/>
-      <c r="V149" s="38"/>
-      <c r="W149" s="38"/>
-      <c r="X149" s="38"/>
-      <c r="Y149" s="38"/>
-      <c r="Z149" s="38"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="37"/>
+      <c r="L149" s="37"/>
+      <c r="M149" s="37"/>
+      <c r="N149" s="37"/>
+      <c r="O149" s="37"/>
+      <c r="P149" s="37"/>
+      <c r="Q149" s="37"/>
+      <c r="R149" s="37"/>
+      <c r="S149" s="37"/>
+      <c r="T149" s="37"/>
+      <c r="U149" s="37"/>
+      <c r="V149" s="37"/>
+      <c r="W149" s="37"/>
+      <c r="X149" s="37"/>
+      <c r="Y149" s="37"/>
+      <c r="Z149" s="12"/>
       <c r="AA149" s="12"/>
       <c r="AB149" s="12"/>
       <c r="AC149" s="12"/>
       <c r="AD149" s="12"/>
       <c r="AE149" s="12"/>
-      <c r="AF149" s="12"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="5" t="s">
+      <c r="B150" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D150" s="43"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="38"/>
-      <c r="L150" s="38"/>
-      <c r="M150" s="38"/>
-      <c r="N150" s="38"/>
-      <c r="O150" s="38"/>
-      <c r="P150" s="38"/>
-      <c r="Q150" s="38"/>
-      <c r="R150" s="38"/>
-      <c r="S150" s="38"/>
-      <c r="T150" s="38"/>
-      <c r="U150" s="38"/>
-      <c r="V150" s="38"/>
-      <c r="W150" s="38"/>
-      <c r="X150" s="38"/>
-      <c r="Y150" s="38"/>
-      <c r="Z150" s="38"/>
+      <c r="J150" s="37"/>
+      <c r="K150" s="37"/>
+      <c r="L150" s="37"/>
+      <c r="M150" s="37"/>
+      <c r="N150" s="37"/>
+      <c r="O150" s="37"/>
+      <c r="P150" s="37"/>
+      <c r="Q150" s="37"/>
+      <c r="R150" s="37"/>
+      <c r="S150" s="37"/>
+      <c r="T150" s="37"/>
+      <c r="U150" s="37"/>
+      <c r="V150" s="37"/>
+      <c r="W150" s="37"/>
+      <c r="X150" s="37"/>
+      <c r="Y150" s="37"/>
+      <c r="Z150" s="12"/>
       <c r="AA150" s="12"/>
       <c r="AB150" s="12"/>
       <c r="AC150" s="12"/>
       <c r="AD150" s="12"/>
       <c r="AE150" s="12"/>
-      <c r="AF150" s="12"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="19" t="s">
+      <c r="B151" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D151" s="43"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
@@ -8439,35 +8323,32 @@
       <c r="W151" s="12"/>
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
-      <c r="Z151" s="12"/>
-      <c r="AA151" s="39"/>
-      <c r="AB151" s="39"/>
-      <c r="AC151" s="39"/>
-      <c r="AD151" s="39"/>
-      <c r="AE151" s="39"/>
-      <c r="AF151" s="39"/>
+      <c r="Z151" s="38"/>
+      <c r="AA151" s="38"/>
+      <c r="AB151" s="38"/>
+      <c r="AC151" s="38"/>
+      <c r="AD151" s="38"/>
+      <c r="AE151" s="38"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B152" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C152" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="40" t="s">
+      <c r="B152" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="37"/>
-      <c r="K152" s="37"/>
-      <c r="L152" s="37"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
+      <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
@@ -8487,88 +8368,88 @@
       <c r="AC152" s="10"/>
       <c r="AD152" s="10"/>
       <c r="AE152" s="10"/>
-      <c r="AF152" s="10"/>
+      <c r="AG152" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="31"/>
-      <c r="C153" s="5" t="s">
+      <c r="B153" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D153" s="40" t="s">
+      <c r="C153" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="38"/>
-      <c r="L153" s="38"/>
-      <c r="M153" s="38"/>
-      <c r="N153" s="38"/>
-      <c r="O153" s="38"/>
-      <c r="P153" s="38"/>
-      <c r="Q153" s="38"/>
-      <c r="R153" s="38"/>
-      <c r="S153" s="38"/>
-      <c r="T153" s="38"/>
-      <c r="U153" s="38"/>
-      <c r="V153" s="38"/>
-      <c r="W153" s="38"/>
-      <c r="X153" s="38"/>
-      <c r="Y153" s="38"/>
-      <c r="Z153" s="38"/>
+      <c r="J153" s="37"/>
+      <c r="K153" s="37"/>
+      <c r="L153" s="37"/>
+      <c r="M153" s="37"/>
+      <c r="N153" s="37"/>
+      <c r="O153" s="37"/>
+      <c r="P153" s="37"/>
+      <c r="Q153" s="37"/>
+      <c r="R153" s="37"/>
+      <c r="S153" s="37"/>
+      <c r="T153" s="37"/>
+      <c r="U153" s="37"/>
+      <c r="V153" s="37"/>
+      <c r="W153" s="37"/>
+      <c r="X153" s="37"/>
+      <c r="Y153" s="37"/>
+      <c r="Z153" s="12"/>
       <c r="AA153" s="12"/>
       <c r="AB153" s="12"/>
       <c r="AC153" s="12"/>
       <c r="AD153" s="12"/>
       <c r="AE153" s="12"/>
-      <c r="AF153" s="12"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
-      <c r="B154" s="31"/>
-      <c r="C154" s="5" t="s">
+      <c r="B154" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D154" s="43"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="12"/>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="38"/>
-      <c r="L154" s="38"/>
-      <c r="M154" s="38"/>
-      <c r="N154" s="38"/>
-      <c r="O154" s="38"/>
-      <c r="P154" s="38"/>
-      <c r="Q154" s="38"/>
-      <c r="R154" s="38"/>
-      <c r="S154" s="38"/>
-      <c r="T154" s="38"/>
-      <c r="U154" s="38"/>
-      <c r="V154" s="38"/>
-      <c r="W154" s="38"/>
-      <c r="X154" s="38"/>
-      <c r="Y154" s="38"/>
-      <c r="Z154" s="38"/>
+      <c r="J154" s="37"/>
+      <c r="K154" s="37"/>
+      <c r="L154" s="37"/>
+      <c r="M154" s="37"/>
+      <c r="N154" s="37"/>
+      <c r="O154" s="37"/>
+      <c r="P154" s="37"/>
+      <c r="Q154" s="37"/>
+      <c r="R154" s="37"/>
+      <c r="S154" s="37"/>
+      <c r="T154" s="37"/>
+      <c r="U154" s="37"/>
+      <c r="V154" s="37"/>
+      <c r="W154" s="37"/>
+      <c r="X154" s="37"/>
+      <c r="Y154" s="37"/>
+      <c r="Z154" s="12"/>
       <c r="AA154" s="12"/>
       <c r="AB154" s="12"/>
       <c r="AC154" s="12"/>
       <c r="AD154" s="12"/>
       <c r="AE154" s="12"/>
-      <c r="AF154" s="12"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="19" t="s">
+      <c r="B155" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="43"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
@@ -8590,35 +8471,32 @@
       <c r="W155" s="12"/>
       <c r="X155" s="12"/>
       <c r="Y155" s="12"/>
-      <c r="Z155" s="12"/>
-      <c r="AA155" s="39"/>
-      <c r="AB155" s="39"/>
-      <c r="AC155" s="39"/>
-      <c r="AD155" s="39"/>
-      <c r="AE155" s="39"/>
-      <c r="AF155" s="39"/>
+      <c r="Z155" s="38"/>
+      <c r="AA155" s="38"/>
+      <c r="AB155" s="38"/>
+      <c r="AC155" s="38"/>
+      <c r="AD155" s="38"/>
+      <c r="AE155" s="38"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B156" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156" s="40" t="s">
+      <c r="B156" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="37"/>
-      <c r="K156" s="37"/>
-      <c r="L156" s="37"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="36"/>
+      <c r="K156" s="36"/>
+      <c r="L156" s="10"/>
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
@@ -8638,88 +8516,88 @@
       <c r="AC156" s="10"/>
       <c r="AD156" s="10"/>
       <c r="AE156" s="10"/>
-      <c r="AF156" s="10"/>
+      <c r="AG156" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="31"/>
-      <c r="C157" s="5" t="s">
+      <c r="B157" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D157" s="40" t="s">
+      <c r="C157" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D157" s="12"/>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="38"/>
-      <c r="L157" s="38"/>
-      <c r="M157" s="38"/>
-      <c r="N157" s="38"/>
-      <c r="O157" s="38"/>
-      <c r="P157" s="38"/>
-      <c r="Q157" s="38"/>
-      <c r="R157" s="38"/>
-      <c r="S157" s="38"/>
-      <c r="T157" s="38"/>
-      <c r="U157" s="38"/>
-      <c r="V157" s="38"/>
-      <c r="W157" s="38"/>
-      <c r="X157" s="38"/>
-      <c r="Y157" s="38"/>
-      <c r="Z157" s="38"/>
+      <c r="J157" s="37"/>
+      <c r="K157" s="37"/>
+      <c r="L157" s="37"/>
+      <c r="M157" s="37"/>
+      <c r="N157" s="37"/>
+      <c r="O157" s="37"/>
+      <c r="P157" s="37"/>
+      <c r="Q157" s="37"/>
+      <c r="R157" s="37"/>
+      <c r="S157" s="37"/>
+      <c r="T157" s="37"/>
+      <c r="U157" s="37"/>
+      <c r="V157" s="37"/>
+      <c r="W157" s="37"/>
+      <c r="X157" s="37"/>
+      <c r="Y157" s="37"/>
+      <c r="Z157" s="12"/>
       <c r="AA157" s="12"/>
       <c r="AB157" s="12"/>
       <c r="AC157" s="12"/>
       <c r="AD157" s="12"/>
       <c r="AE157" s="12"/>
-      <c r="AF157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
-      <c r="B158" s="31"/>
-      <c r="C158" s="5" t="s">
+      <c r="B158" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D158" s="43"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="12"/>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="38"/>
-      <c r="L158" s="38"/>
-      <c r="M158" s="38"/>
-      <c r="N158" s="38"/>
-      <c r="O158" s="38"/>
-      <c r="P158" s="38"/>
-      <c r="Q158" s="38"/>
-      <c r="R158" s="38"/>
-      <c r="S158" s="38"/>
-      <c r="T158" s="38"/>
-      <c r="U158" s="38"/>
-      <c r="V158" s="38"/>
-      <c r="W158" s="38"/>
-      <c r="X158" s="38"/>
-      <c r="Y158" s="38"/>
-      <c r="Z158" s="38"/>
+      <c r="J158" s="37"/>
+      <c r="K158" s="37"/>
+      <c r="L158" s="37"/>
+      <c r="M158" s="37"/>
+      <c r="N158" s="37"/>
+      <c r="O158" s="37"/>
+      <c r="P158" s="37"/>
+      <c r="Q158" s="37"/>
+      <c r="R158" s="37"/>
+      <c r="S158" s="37"/>
+      <c r="T158" s="37"/>
+      <c r="U158" s="37"/>
+      <c r="V158" s="37"/>
+      <c r="W158" s="37"/>
+      <c r="X158" s="37"/>
+      <c r="Y158" s="37"/>
+      <c r="Z158" s="12"/>
       <c r="AA158" s="12"/>
       <c r="AB158" s="12"/>
       <c r="AC158" s="12"/>
       <c r="AD158" s="12"/>
       <c r="AE158" s="12"/>
-      <c r="AF158" s="12"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
-      <c r="B159" s="31"/>
-      <c r="C159" s="19" t="s">
+      <c r="B159" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D159" s="43"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="12"/>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
@@ -8741,35 +8619,32 @@
       <c r="W159" s="12"/>
       <c r="X159" s="12"/>
       <c r="Y159" s="12"/>
-      <c r="Z159" s="12"/>
-      <c r="AA159" s="39"/>
-      <c r="AB159" s="39"/>
-      <c r="AC159" s="39"/>
-      <c r="AD159" s="39"/>
-      <c r="AE159" s="39"/>
-      <c r="AF159" s="39"/>
+      <c r="Z159" s="38"/>
+      <c r="AA159" s="38"/>
+      <c r="AB159" s="38"/>
+      <c r="AC159" s="38"/>
+      <c r="AD159" s="38"/>
+      <c r="AE159" s="38"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B160" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C160" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D160" s="40" t="s">
+      <c r="B160" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="37"/>
-      <c r="K160" s="37"/>
-      <c r="L160" s="37"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="36"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="36"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
+      <c r="L160" s="10"/>
       <c r="M160" s="10"/>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
@@ -8789,88 +8664,88 @@
       <c r="AC160" s="10"/>
       <c r="AD160" s="10"/>
       <c r="AE160" s="10"/>
-      <c r="AF160" s="10"/>
+      <c r="AG160" s="0" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="31"/>
-      <c r="C161" s="5" t="s">
+      <c r="B161" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D161" s="40" t="s">
+      <c r="C161" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="38"/>
-      <c r="L161" s="38"/>
-      <c r="M161" s="38"/>
-      <c r="N161" s="38"/>
-      <c r="O161" s="38"/>
-      <c r="P161" s="38"/>
-      <c r="Q161" s="38"/>
-      <c r="R161" s="38"/>
-      <c r="S161" s="38"/>
-      <c r="T161" s="38"/>
-      <c r="U161" s="38"/>
-      <c r="V161" s="38"/>
-      <c r="W161" s="38"/>
-      <c r="X161" s="38"/>
-      <c r="Y161" s="38"/>
-      <c r="Z161" s="38"/>
+      <c r="J161" s="37"/>
+      <c r="K161" s="37"/>
+      <c r="L161" s="37"/>
+      <c r="M161" s="37"/>
+      <c r="N161" s="37"/>
+      <c r="O161" s="37"/>
+      <c r="P161" s="37"/>
+      <c r="Q161" s="37"/>
+      <c r="R161" s="37"/>
+      <c r="S161" s="37"/>
+      <c r="T161" s="37"/>
+      <c r="U161" s="37"/>
+      <c r="V161" s="37"/>
+      <c r="W161" s="37"/>
+      <c r="X161" s="37"/>
+      <c r="Y161" s="37"/>
+      <c r="Z161" s="12"/>
       <c r="AA161" s="12"/>
       <c r="AB161" s="12"/>
       <c r="AC161" s="12"/>
       <c r="AD161" s="12"/>
       <c r="AE161" s="12"/>
-      <c r="AF161" s="12"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
-      <c r="B162" s="31"/>
-      <c r="C162" s="5" t="s">
+      <c r="B162" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D162" s="43"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="12"/>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="38"/>
-      <c r="L162" s="38"/>
-      <c r="M162" s="38"/>
-      <c r="N162" s="38"/>
-      <c r="O162" s="38"/>
-      <c r="P162" s="38"/>
-      <c r="Q162" s="38"/>
-      <c r="R162" s="38"/>
-      <c r="S162" s="38"/>
-      <c r="T162" s="38"/>
-      <c r="U162" s="38"/>
-      <c r="V162" s="38"/>
-      <c r="W162" s="38"/>
-      <c r="X162" s="38"/>
-      <c r="Y162" s="38"/>
-      <c r="Z162" s="38"/>
+      <c r="J162" s="37"/>
+      <c r="K162" s="37"/>
+      <c r="L162" s="37"/>
+      <c r="M162" s="37"/>
+      <c r="N162" s="37"/>
+      <c r="O162" s="37"/>
+      <c r="P162" s="37"/>
+      <c r="Q162" s="37"/>
+      <c r="R162" s="37"/>
+      <c r="S162" s="37"/>
+      <c r="T162" s="37"/>
+      <c r="U162" s="37"/>
+      <c r="V162" s="37"/>
+      <c r="W162" s="37"/>
+      <c r="X162" s="37"/>
+      <c r="Y162" s="37"/>
+      <c r="Z162" s="12"/>
       <c r="AA162" s="12"/>
       <c r="AB162" s="12"/>
       <c r="AC162" s="12"/>
       <c r="AD162" s="12"/>
       <c r="AE162" s="12"/>
-      <c r="AF162" s="12"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="19" t="s">
+      <c r="B163" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D163" s="43"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
@@ -8892,381 +8767,380 @@
       <c r="W163" s="12"/>
       <c r="X163" s="12"/>
       <c r="Y163" s="12"/>
-      <c r="Z163" s="12"/>
-      <c r="AA163" s="39"/>
-      <c r="AB163" s="39"/>
-      <c r="AC163" s="39"/>
-      <c r="AD163" s="39"/>
-      <c r="AE163" s="39"/>
-      <c r="AF163" s="39"/>
+      <c r="Z163" s="38"/>
+      <c r="AA163" s="38"/>
+      <c r="AB163" s="38"/>
+      <c r="AC163" s="38"/>
+      <c r="AD163" s="38"/>
+      <c r="AE163" s="38"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="44"/>
-      <c r="C164" s="45"/>
+      <c r="A164" s="43"/>
+      <c r="B164" s="44"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="46"/>
-      <c r="C165" s="45"/>
+      <c r="A165" s="45"/>
+      <c r="B165" s="44"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="46"/>
-      <c r="C166" s="45"/>
+      <c r="A166" s="45"/>
+      <c r="B166" s="44"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="44"/>
-      <c r="C167" s="45"/>
+      <c r="A167" s="43"/>
+      <c r="B167" s="44"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="46"/>
-      <c r="C168" s="45"/>
+      <c r="A168" s="45"/>
+      <c r="B168" s="44"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="46"/>
-      <c r="C169" s="45"/>
+      <c r="A169" s="45"/>
+      <c r="B169" s="44"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="44"/>
-      <c r="C170" s="45"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="44"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="46"/>
-      <c r="C171" s="45"/>
+      <c r="A171" s="45"/>
+      <c r="B171" s="44"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="46"/>
-      <c r="C172" s="45"/>
+      <c r="A172" s="45"/>
+      <c r="B172" s="44"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="44"/>
-      <c r="C173" s="45"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="44"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="46"/>
-      <c r="C174" s="45"/>
+      <c r="A174" s="45"/>
+      <c r="B174" s="44"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="46"/>
-      <c r="C175" s="45"/>
+      <c r="A175" s="45"/>
+      <c r="B175" s="44"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="44"/>
-      <c r="C176" s="45"/>
+      <c r="A176" s="43"/>
+      <c r="B176" s="44"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="46"/>
-      <c r="C177" s="45"/>
+      <c r="A177" s="45"/>
+      <c r="B177" s="44"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="46"/>
-      <c r="C178" s="45"/>
+      <c r="A178" s="45"/>
+      <c r="B178" s="44"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="44"/>
-      <c r="C179" s="45"/>
+      <c r="A179" s="43"/>
+      <c r="B179" s="44"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="46"/>
-      <c r="C180" s="45"/>
+      <c r="A180" s="45"/>
+      <c r="B180" s="44"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="46"/>
-      <c r="C181" s="45"/>
+      <c r="A181" s="45"/>
+      <c r="B181" s="44"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="44"/>
-      <c r="C182" s="45"/>
+      <c r="A182" s="43"/>
+      <c r="B182" s="44"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="46"/>
-      <c r="C183" s="45"/>
+      <c r="A183" s="45"/>
+      <c r="B183" s="44"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="46"/>
-      <c r="C184" s="45"/>
+      <c r="A184" s="45"/>
+      <c r="B184" s="44"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="44"/>
-      <c r="C185" s="45"/>
+      <c r="A185" s="43"/>
+      <c r="B185" s="44"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="46"/>
-      <c r="C186" s="45"/>
+      <c r="A186" s="45"/>
+      <c r="B186" s="44"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="46"/>
-      <c r="C187" s="45"/>
+      <c r="A187" s="45"/>
+      <c r="B187" s="44"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="44"/>
-      <c r="C188" s="45"/>
+      <c r="A188" s="43"/>
+      <c r="B188" s="44"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="46"/>
-      <c r="C189" s="45"/>
+      <c r="A189" s="45"/>
+      <c r="B189" s="44"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="46"/>
-      <c r="C190" s="45"/>
+      <c r="A190" s="45"/>
+      <c r="B190" s="44"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="44"/>
-      <c r="C191" s="45"/>
+      <c r="A191" s="43"/>
+      <c r="B191" s="44"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="46"/>
-      <c r="C192" s="45"/>
+      <c r="A192" s="45"/>
+      <c r="B192" s="44"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="46"/>
-      <c r="C193" s="45"/>
+      <c r="A193" s="45"/>
+      <c r="B193" s="44"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="44"/>
-      <c r="C194" s="45"/>
+      <c r="A194" s="43"/>
+      <c r="B194" s="44"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="46"/>
-      <c r="C195" s="45"/>
+      <c r="A195" s="45"/>
+      <c r="B195" s="44"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="46"/>
-      <c r="C196" s="45"/>
+      <c r="A196" s="45"/>
+      <c r="B196" s="44"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="44"/>
-      <c r="C197" s="45"/>
+      <c r="A197" s="43"/>
+      <c r="B197" s="44"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="46"/>
-      <c r="C198" s="45"/>
+      <c r="A198" s="45"/>
+      <c r="B198" s="44"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="46"/>
-      <c r="C199" s="45"/>
+      <c r="A199" s="45"/>
+      <c r="B199" s="44"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="44"/>
-      <c r="C200" s="45"/>
+      <c r="A200" s="43"/>
+      <c r="B200" s="44"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="46"/>
-      <c r="C201" s="45"/>
+      <c r="A201" s="45"/>
+      <c r="B201" s="44"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="46"/>
-      <c r="C202" s="45"/>
+      <c r="A202" s="45"/>
+      <c r="B202" s="44"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="44"/>
-      <c r="C203" s="45"/>
+      <c r="A203" s="43"/>
+      <c r="B203" s="44"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="46"/>
-      <c r="C204" s="45"/>
+      <c r="A204" s="45"/>
+      <c r="B204" s="44"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="46"/>
-      <c r="C205" s="45"/>
+      <c r="A205" s="45"/>
+      <c r="B205" s="44"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="44"/>
-      <c r="C206" s="45"/>
+      <c r="A206" s="43"/>
+      <c r="B206" s="44"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="46"/>
-      <c r="C207" s="45"/>
+      <c r="A207" s="45"/>
+      <c r="B207" s="44"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="46"/>
-      <c r="C208" s="45"/>
+      <c r="A208" s="45"/>
+      <c r="B208" s="44"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="44"/>
-      <c r="C209" s="45"/>
+      <c r="A209" s="43"/>
+      <c r="B209" s="44"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="46"/>
-      <c r="C210" s="45"/>
+      <c r="A210" s="45"/>
+      <c r="B210" s="44"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="46"/>
-      <c r="C211" s="45"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="44"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="44"/>
-      <c r="C212" s="45"/>
+      <c r="A212" s="43"/>
+      <c r="B212" s="44"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="46"/>
-      <c r="C213" s="45"/>
+      <c r="A213" s="45"/>
+      <c r="B213" s="44"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="46"/>
-      <c r="C214" s="45"/>
+      <c r="A214" s="45"/>
+      <c r="B214" s="44"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="44"/>
-      <c r="C215" s="45"/>
+      <c r="A215" s="43"/>
+      <c r="B215" s="44"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="46"/>
-      <c r="C216" s="45"/>
+      <c r="A216" s="45"/>
+      <c r="B216" s="44"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="46"/>
-      <c r="C217" s="45"/>
+      <c r="A217" s="45"/>
+      <c r="B217" s="44"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="44"/>
-      <c r="C218" s="45"/>
+      <c r="A218" s="43"/>
+      <c r="B218" s="44"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="46"/>
-      <c r="C219" s="45"/>
+      <c r="A219" s="45"/>
+      <c r="B219" s="44"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="46"/>
-      <c r="C220" s="45"/>
+      <c r="A220" s="45"/>
+      <c r="B220" s="44"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="44"/>
-      <c r="C221" s="45"/>
+      <c r="A221" s="43"/>
+      <c r="B221" s="44"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="46"/>
-      <c r="C222" s="45"/>
+      <c r="A222" s="45"/>
+      <c r="B222" s="44"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="46"/>
-      <c r="C223" s="45"/>
+      <c r="A223" s="45"/>
+      <c r="B223" s="44"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="44"/>
-      <c r="C224" s="45"/>
+      <c r="A224" s="43"/>
+      <c r="B224" s="44"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="46"/>
-      <c r="C225" s="45"/>
+      <c r="A225" s="45"/>
+      <c r="B225" s="44"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="46"/>
-      <c r="C226" s="45"/>
+      <c r="A226" s="45"/>
+      <c r="B226" s="44"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="44"/>
-      <c r="C227" s="45"/>
+      <c r="A227" s="43"/>
+      <c r="B227" s="44"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="46"/>
-      <c r="C228" s="45"/>
+      <c r="A228" s="45"/>
+      <c r="B228" s="44"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="46"/>
-      <c r="C229" s="45"/>
+      <c r="A229" s="45"/>
+      <c r="B229" s="44"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="44"/>
-      <c r="C230" s="45"/>
+      <c r="A230" s="43"/>
+      <c r="B230" s="44"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="46"/>
-      <c r="C231" s="45"/>
+      <c r="A231" s="45"/>
+      <c r="B231" s="44"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="46"/>
-      <c r="C232" s="45"/>
+      <c r="A232" s="45"/>
+      <c r="B232" s="44"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="44"/>
-      <c r="C233" s="45"/>
+      <c r="A233" s="43"/>
+      <c r="B233" s="44"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="46"/>
-      <c r="C234" s="45"/>
+      <c r="A234" s="45"/>
+      <c r="B234" s="44"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="46"/>
-      <c r="C235" s="45"/>
+      <c r="A235" s="45"/>
+      <c r="B235" s="44"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="44"/>
-      <c r="C236" s="45"/>
+      <c r="A236" s="43"/>
+      <c r="B236" s="44"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="46"/>
-      <c r="C237" s="45"/>
+      <c r="A237" s="45"/>
+      <c r="B237" s="44"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="46"/>
-      <c r="C238" s="45"/>
+      <c r="A238" s="45"/>
+      <c r="B238" s="44"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="44"/>
-      <c r="C239" s="45"/>
+      <c r="A239" s="43"/>
+      <c r="B239" s="44"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="46"/>
-      <c r="C240" s="45"/>
+      <c r="A240" s="45"/>
+      <c r="B240" s="44"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="46"/>
-      <c r="C241" s="45"/>
+      <c r="A241" s="45"/>
+      <c r="B241" s="44"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="44"/>
-      <c r="C242" s="45"/>
+      <c r="A242" s="43"/>
+      <c r="B242" s="44"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="46"/>
-      <c r="C243" s="45"/>
+      <c r="A243" s="45"/>
+      <c r="B243" s="44"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="46"/>
-      <c r="C244" s="45"/>
+      <c r="A244" s="45"/>
+      <c r="B244" s="44"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="44"/>
-      <c r="C245" s="45"/>
+      <c r="A245" s="43"/>
+      <c r="B245" s="44"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="46"/>
-      <c r="C246" s="45"/>
+      <c r="A246" s="45"/>
+      <c r="B246" s="44"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="46"/>
-      <c r="C247" s="45"/>
+      <c r="A247" s="45"/>
+      <c r="B247" s="44"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="44"/>
-      <c r="C248" s="45"/>
+      <c r="A248" s="43"/>
+      <c r="B248" s="44"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="46"/>
-      <c r="C249" s="45"/>
+      <c r="A249" s="45"/>
+      <c r="B249" s="44"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="46"/>
-      <c r="C250" s="45"/>
+      <c r="A250" s="45"/>
+      <c r="B250" s="44"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="44"/>
-      <c r="C251" s="45"/>
+      <c r="A251" s="43"/>
+      <c r="B251" s="44"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="46"/>
-      <c r="C252" s="45"/>
+      <c r="A252" s="45"/>
+      <c r="B252" s="44"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="46"/>
-      <c r="C253" s="45"/>
+      <c r="A253" s="45"/>
+      <c r="B253" s="44"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="44"/>
-      <c r="C254" s="45"/>
+      <c r="A254" s="43"/>
+      <c r="B254" s="44"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="46"/>
-      <c r="C255" s="45"/>
+      <c r="A255" s="45"/>
+      <c r="B255" s="44"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9286,14 +9160,14 @@
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
